--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_17_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_17_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3394195.199610231</v>
+        <v>-3395978.105470094</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6028847.321918216</v>
+        <v>6028847.321918217</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673438</v>
+        <v>603248.4937673426</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>303.1651078591981</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>285.704157966725</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>275.1143078164004</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>327.3073119374289</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>332.9594913636451</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>231.4915937356466</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>23.94276850040934</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>66.22713566997376</v>
       </c>
       <c r="T11" t="n">
-        <v>131.3816879599484</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>171.5549581157773</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>248.1835246658524</v>
+        <v>223.1300285584503</v>
       </c>
       <c r="W11" t="n">
-        <v>269.6722349131305</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>290.1623668741865</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>285.5297794906126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,25 +1446,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>86.96444984558482</v>
+        <v>86.96444984558481</v>
       </c>
       <c r="C12" t="n">
-        <v>93.13976518403322</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>67.87633176035624</v>
+        <v>67.87633176035622</v>
       </c>
       <c r="E12" t="n">
-        <v>78.07634665111843</v>
+        <v>78.07634665111841</v>
       </c>
       <c r="F12" t="n">
-        <v>65.50047858910136</v>
+        <v>65.50047858910135</v>
       </c>
       <c r="G12" t="n">
-        <v>56.29028837994822</v>
+        <v>56.29028837994821</v>
       </c>
       <c r="H12" t="n">
-        <v>18.3296141878555</v>
+        <v>18.32961418785548</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>7.988926598084447</v>
+        <v>7.988926598084433</v>
       </c>
       <c r="S12" t="n">
-        <v>144.1093279635753</v>
+        <v>64.54059415929281</v>
       </c>
       <c r="T12" t="n">
         <v>194.1811721786702</v>
@@ -1506,16 +1506,16 @@
         <v>225.8437179376209</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>153.2318533451427</v>
       </c>
       <c r="W12" t="n">
-        <v>172.1262493566371</v>
+        <v>242.4575757510889</v>
       </c>
       <c r="X12" t="n">
-        <v>196.535577793647</v>
+        <v>126.2042513991949</v>
       </c>
       <c r="Y12" t="n">
-        <v>126.1139619730218</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1528,25 +1528,25 @@
         <v>100.2632463776548</v>
       </c>
       <c r="C13" t="n">
-        <v>87.67808729434532</v>
+        <v>87.6780872943453</v>
       </c>
       <c r="D13" t="n">
-        <v>69.04673921392984</v>
+        <v>69.04673921392983</v>
       </c>
       <c r="E13" t="n">
-        <v>66.86522884228665</v>
+        <v>66.86522884228664</v>
       </c>
       <c r="F13" t="n">
-        <v>65.85231421864873</v>
+        <v>65.85231421864871</v>
       </c>
       <c r="G13" t="n">
-        <v>87.17769483121783</v>
+        <v>87.17769483121782</v>
       </c>
       <c r="H13" t="n">
-        <v>71.59325136630865</v>
+        <v>71.59325136630819</v>
       </c>
       <c r="I13" t="n">
-        <v>38.4547066543708</v>
+        <v>38.45470665437194</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.76513142968432</v>
+        <v>41.7651314296843</v>
       </c>
       <c r="S13" t="n">
-        <v>122.7587393607687</v>
+        <v>122.7587393607691</v>
       </c>
       <c r="T13" t="n">
         <v>143.0592298077221</v>
       </c>
       <c r="U13" t="n">
-        <v>206.68241096732</v>
+        <v>206.6824109673196</v>
       </c>
       <c r="V13" t="n">
         <v>172.5689095195455</v>
@@ -1594,7 +1594,7 @@
         <v>146.1409215847546</v>
       </c>
       <c r="Y13" t="n">
-        <v>139.0159195478123</v>
+        <v>139.0159195478122</v>
       </c>
     </row>
     <row r="14">
@@ -1610,22 +1610,22 @@
         <v>285.704157966725</v>
       </c>
       <c r="D14" t="n">
-        <v>275.1143078164004</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>56.13026307145442</v>
+        <v>79.11487006655103</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>327.3073119374289</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>231.4915937356466</v>
       </c>
       <c r="I14" t="n">
-        <v>23.94276850040936</v>
+        <v>23.94276850040934</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>290.1623668741865</v>
       </c>
       <c r="Y14" t="n">
-        <v>306.669204851771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1686,7 +1686,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>150.6664126975211</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -1698,13 +1698,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>72.53393325200554</v>
+        <v>56.29028837994821</v>
       </c>
       <c r="H15" t="n">
         <v>97.89834799213801</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>38.28573116285294</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>7.988926598084447</v>
+        <v>7.988926598084433</v>
       </c>
       <c r="S15" t="n">
         <v>144.1093279635753</v>
@@ -1783,7 +1783,7 @@
         <v>71.59325136630864</v>
       </c>
       <c r="I16" t="n">
-        <v>38.45470665437175</v>
+        <v>38.45470665437218</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.76513142968431</v>
+        <v>41.76513142968434</v>
       </c>
       <c r="S16" t="n">
         <v>122.7587393607691</v>
@@ -1847,13 +1847,13 @@
         <v>206.1354241624425</v>
       </c>
       <c r="D17" t="n">
-        <v>195.5455740121179</v>
+        <v>182.119247404931</v>
       </c>
       <c r="E17" t="n">
         <v>222.7929024636967</v>
       </c>
       <c r="F17" t="n">
-        <v>234.3122515259572</v>
+        <v>247.7385781331463</v>
       </c>
       <c r="G17" t="n">
         <v>253.3907575593626</v>
@@ -1895,22 +1895,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>51.81295415566586</v>
+        <v>51.81295415566579</v>
       </c>
       <c r="U17" t="n">
-        <v>91.98622431149471</v>
+        <v>91.98622431149481</v>
       </c>
       <c r="V17" t="n">
-        <v>168.6147908615699</v>
+        <v>168.6147908615698</v>
       </c>
       <c r="W17" t="n">
-        <v>190.103501108848</v>
+        <v>190.1035011088479</v>
       </c>
       <c r="X17" t="n">
-        <v>210.593633069904</v>
+        <v>210.5936330699039</v>
       </c>
       <c r="Y17" t="n">
-        <v>227.1004710474886</v>
+        <v>227.1004710474885</v>
       </c>
     </row>
     <row r="18">
@@ -1929,19 +1929,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>56.03426036032366</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>34.24820208915261</v>
+        <v>135.8590221842308</v>
       </c>
       <c r="H18" t="n">
         <v>97.89834799213801</v>
       </c>
       <c r="I18" t="n">
-        <v>38.28573116285295</v>
+        <v>38.28573116285294</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>7.988926598084447</v>
+        <v>7.988926598084433</v>
       </c>
       <c r="S18" t="n">
         <v>144.1093279635753</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>20.69451257337221</v>
       </c>
       <c r="C19" t="n">
-        <v>8.109353490062801</v>
+        <v>8.109353490062745</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>7.608961026935318</v>
+        <v>7.60896102693526</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>53.23237099758536</v>
       </c>
       <c r="S19" t="n">
-        <v>43.19000555648659</v>
+        <v>202.3274731650516</v>
       </c>
       <c r="T19" t="n">
-        <v>116.7228670010247</v>
+        <v>63.49049600343957</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2511447716022</v>
+        <v>127.1136771630372</v>
       </c>
       <c r="V19" t="n">
-        <v>93.00017571526297</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>127.385530728026</v>
+        <v>127.3855307280259</v>
       </c>
       <c r="X19" t="n">
-        <v>66.57218778047212</v>
+        <v>66.57218778047206</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2090,7 +2090,7 @@
         <v>222.7929024636967</v>
       </c>
       <c r="F20" t="n">
-        <v>234.3122515259571</v>
+        <v>247.7385781331463</v>
       </c>
       <c r="G20" t="n">
         <v>253.3907575593626</v>
@@ -2132,22 +2132,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>51.81295415566586</v>
+        <v>51.81295415566581</v>
       </c>
       <c r="U20" t="n">
-        <v>91.98622431149516</v>
+        <v>91.98622431149481</v>
       </c>
       <c r="V20" t="n">
-        <v>168.6147908615699</v>
+        <v>168.6147908615698</v>
       </c>
       <c r="W20" t="n">
-        <v>190.103501108848</v>
+        <v>190.1035011088479</v>
       </c>
       <c r="X20" t="n">
-        <v>210.593633069904</v>
+        <v>197.1673064627169</v>
       </c>
       <c r="Y20" t="n">
-        <v>227.1004710474886</v>
+        <v>227.1004710474885</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>135.8590221842308</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>34.5732590599137</v>
       </c>
       <c r="I21" t="n">
-        <v>34.57325905991281</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>7.988926598084447</v>
+        <v>7.988926598084433</v>
       </c>
       <c r="S21" t="n">
         <v>144.1093279635753</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>20.69451257337226</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>8.109353490062745</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>7.608961026935318</v>
+        <v>7.60896102693526</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>121.3338652339668</v>
+        <v>53.23237099758514</v>
       </c>
       <c r="S22" t="n">
-        <v>43.19000555648659</v>
+        <v>43.19000555648653</v>
       </c>
       <c r="T22" t="n">
-        <v>63.49049600343962</v>
+        <v>63.49049600343957</v>
       </c>
       <c r="U22" t="n">
-        <v>127.1136771630372</v>
+        <v>286.2511447716022</v>
       </c>
       <c r="V22" t="n">
-        <v>93.00017571526297</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>127.385530728026</v>
+        <v>127.3855307280259</v>
       </c>
       <c r="X22" t="n">
-        <v>157.6081611526553</v>
+        <v>66.57218778047206</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>59.4471857435297</v>
       </c>
     </row>
     <row r="23">
@@ -2327,7 +2327,7 @@
         <v>222.7929024636967</v>
       </c>
       <c r="F23" t="n">
-        <v>247.7385781331464</v>
+        <v>247.7385781331463</v>
       </c>
       <c r="G23" t="n">
         <v>253.3907575593626</v>
@@ -2369,22 +2369,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>51.81295415566586</v>
+        <v>51.81295415566579</v>
       </c>
       <c r="U23" t="n">
-        <v>91.98622431149487</v>
+        <v>91.98622431149481</v>
       </c>
       <c r="V23" t="n">
-        <v>168.6147908615699</v>
+        <v>168.6147908615698</v>
       </c>
       <c r="W23" t="n">
-        <v>190.103501108848</v>
+        <v>190.1035011088479</v>
       </c>
       <c r="X23" t="n">
-        <v>210.593633069904</v>
+        <v>210.5936330699039</v>
       </c>
       <c r="Y23" t="n">
-        <v>227.1004710474886</v>
+        <v>227.1004710474885</v>
       </c>
     </row>
     <row r="24">
@@ -2406,16 +2406,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>56.88471890549454</v>
       </c>
       <c r="G24" t="n">
         <v>135.8590221842308</v>
       </c>
       <c r="H24" t="n">
-        <v>47.9995856671025</v>
+        <v>97.89834799213801</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>38.28573116285294</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>7.988926598084447</v>
+        <v>7.988926598084433</v>
       </c>
       <c r="S24" t="n">
         <v>144.1093279635753</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>20.69451257337226</v>
+        <v>20.69451257337221</v>
       </c>
       <c r="C25" t="n">
-        <v>8.109353490062801</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>63.75436558793815</v>
       </c>
       <c r="G25" t="n">
-        <v>7.608961026935318</v>
+        <v>7.60896102693526</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>121.3338652339668</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>43.19000555648659</v>
+        <v>202.3274731650516</v>
       </c>
       <c r="T25" t="n">
-        <v>63.49049600343962</v>
+        <v>63.49049600343957</v>
       </c>
       <c r="U25" t="n">
         <v>127.1136771630372</v>
       </c>
       <c r="V25" t="n">
-        <v>194.5581436777987</v>
+        <v>93.00017571526291</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>127.3855307280259</v>
       </c>
       <c r="X25" t="n">
-        <v>66.57218778047212</v>
+        <v>66.57218778047206</v>
       </c>
       <c r="Y25" t="n">
-        <v>59.44718574352976</v>
+        <v>59.4471857435297</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>231.4915937356466</v>
       </c>
       <c r="I26" t="n">
-        <v>23.94276850040936</v>
+        <v>23.94276850040934</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.22713566997376</v>
+        <v>66.22713566997373</v>
       </c>
       <c r="T26" t="n">
         <v>131.3816879599484</v>
       </c>
       <c r="U26" t="n">
-        <v>171.5549581157775</v>
+        <v>171.5549581157771</v>
       </c>
       <c r="V26" t="n">
         <v>248.1835246658524</v>
@@ -2652,7 +2652,7 @@
         <v>97.89834799213801</v>
       </c>
       <c r="I27" t="n">
-        <v>38.28573116285295</v>
+        <v>38.28573116285294</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>7.988926598084447</v>
+        <v>7.988926598084433</v>
       </c>
       <c r="S27" t="n">
         <v>144.1093279635753</v>
@@ -2713,22 +2713,22 @@
         <v>100.2632463776548</v>
       </c>
       <c r="C28" t="n">
-        <v>87.6780872943453</v>
+        <v>87.67808729434529</v>
       </c>
       <c r="D28" t="n">
-        <v>69.04673921392983</v>
+        <v>69.04673921392981</v>
       </c>
       <c r="E28" t="n">
-        <v>66.86522884228664</v>
+        <v>66.86522884228663</v>
       </c>
       <c r="F28" t="n">
-        <v>65.85231421864871</v>
+        <v>65.8523142186487</v>
       </c>
       <c r="G28" t="n">
-        <v>87.17769483121759</v>
+        <v>87.17769483121781</v>
       </c>
       <c r="H28" t="n">
-        <v>71.59325136630864</v>
+        <v>71.59325136630862</v>
       </c>
       <c r="I28" t="n">
         <v>38.45470665437193</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.76513142968434</v>
+        <v>41.76513142968429</v>
       </c>
       <c r="S28" t="n">
         <v>122.7587393607691</v>
@@ -2810,7 +2810,7 @@
         <v>231.4915937356466</v>
       </c>
       <c r="I29" t="n">
-        <v>23.94276850040936</v>
+        <v>23.94276850040933</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.22713566997407</v>
+        <v>66.22713566997372</v>
       </c>
       <c r="T29" t="n">
-        <v>131.3816879599484</v>
+        <v>131.3816879599486</v>
       </c>
       <c r="U29" t="n">
         <v>171.5549581157771</v>
@@ -2889,7 +2889,7 @@
         <v>97.89834799213801</v>
       </c>
       <c r="I30" t="n">
-        <v>38.28573116285295</v>
+        <v>38.28573116285293</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>7.988926598084447</v>
+        <v>7.988926598084419</v>
       </c>
       <c r="S30" t="n">
         <v>144.1093279635753</v>
@@ -2950,25 +2950,25 @@
         <v>100.2632463776548</v>
       </c>
       <c r="C31" t="n">
-        <v>87.6780872943453</v>
+        <v>87.67808729434529</v>
       </c>
       <c r="D31" t="n">
-        <v>69.04673921392983</v>
+        <v>69.04673921392981</v>
       </c>
       <c r="E31" t="n">
-        <v>66.86522884228664</v>
+        <v>66.86522884228663</v>
       </c>
       <c r="F31" t="n">
-        <v>65.85231421864871</v>
+        <v>65.8523142186487</v>
       </c>
       <c r="G31" t="n">
-        <v>87.17769483121782</v>
+        <v>87.17769483121781</v>
       </c>
       <c r="H31" t="n">
-        <v>71.59325136630864</v>
+        <v>71.59325136630862</v>
       </c>
       <c r="I31" t="n">
-        <v>38.45470665437164</v>
+        <v>38.45470665437192</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>303.165107859198</v>
+        <v>303.1651078591981</v>
       </c>
       <c r="C32" t="n">
-        <v>285.704157966725</v>
+        <v>285.7041579667251</v>
       </c>
       <c r="D32" t="n">
-        <v>275.1143078164004</v>
+        <v>275.1143078164005</v>
       </c>
       <c r="E32" t="n">
-        <v>302.3616362679792</v>
+        <v>302.3616362679793</v>
       </c>
       <c r="F32" t="n">
         <v>327.3073119374289</v>
       </c>
       <c r="G32" t="n">
-        <v>332.9594913636451</v>
+        <v>332.9594913636452</v>
       </c>
       <c r="H32" t="n">
-        <v>231.4915937356466</v>
+        <v>231.4915937356467</v>
       </c>
       <c r="I32" t="n">
-        <v>23.94276850040937</v>
+        <v>23.9427685004094</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.22713566997375</v>
+        <v>66.22713566997379</v>
       </c>
       <c r="T32" t="n">
-        <v>131.3816879599486</v>
+        <v>131.3816879599491</v>
       </c>
       <c r="U32" t="n">
-        <v>171.5549581157775</v>
+        <v>171.5549581157766</v>
       </c>
       <c r="V32" t="n">
         <v>248.1835246658524</v>
@@ -3095,7 +3095,7 @@
         <v>290.1623668741865</v>
       </c>
       <c r="Y32" t="n">
-        <v>306.669204851771</v>
+        <v>306.6692048517711</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>97.89834799213801</v>
       </c>
       <c r="I33" t="n">
-        <v>38.28573116285295</v>
+        <v>38.28573116285294</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>7.988926598084447</v>
+        <v>7.988926598084433</v>
       </c>
       <c r="S33" t="n">
         <v>144.1093279635753</v>
@@ -3187,25 +3187,25 @@
         <v>100.2632463776548</v>
       </c>
       <c r="C34" t="n">
-        <v>87.6780872943453</v>
+        <v>87.67808729434535</v>
       </c>
       <c r="D34" t="n">
-        <v>69.04673921392983</v>
+        <v>69.04673921392987</v>
       </c>
       <c r="E34" t="n">
-        <v>66.86522884228664</v>
+        <v>66.86522884228668</v>
       </c>
       <c r="F34" t="n">
-        <v>65.85231421864871</v>
+        <v>65.85231421864876</v>
       </c>
       <c r="G34" t="n">
-        <v>87.17769483121781</v>
+        <v>87.17769483121786</v>
       </c>
       <c r="H34" t="n">
-        <v>71.59325136630862</v>
+        <v>71.59325136630868</v>
       </c>
       <c r="I34" t="n">
-        <v>38.454706654372</v>
+        <v>38.45470665437151</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.7651314296843</v>
+        <v>41.76513142968435</v>
       </c>
       <c r="S34" t="n">
         <v>122.7587393607691</v>
       </c>
       <c r="T34" t="n">
-        <v>143.0592298077221</v>
+        <v>143.0592298077222</v>
       </c>
       <c r="U34" t="n">
-        <v>206.6824109673197</v>
+        <v>206.6824109673198</v>
       </c>
       <c r="V34" t="n">
         <v>172.5689095195455</v>
@@ -3250,10 +3250,10 @@
         <v>206.9542645323085</v>
       </c>
       <c r="X34" t="n">
-        <v>146.1409215847546</v>
+        <v>146.1409215847547</v>
       </c>
       <c r="Y34" t="n">
-        <v>139.0159195478122</v>
+        <v>139.0159195478123</v>
       </c>
     </row>
     <row r="35">
@@ -3317,10 +3317,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>65.15455228997462</v>
+        <v>65.15455228997497</v>
       </c>
       <c r="U35" t="n">
-        <v>105.3278224458039</v>
+        <v>105.3278224458034</v>
       </c>
       <c r="V35" t="n">
         <v>181.9563889958786</v>
@@ -3363,7 +3363,7 @@
         <v>97.89834799213801</v>
       </c>
       <c r="I36" t="n">
-        <v>38.28573116285295</v>
+        <v>38.28573116285294</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>7.988926598084447</v>
+        <v>7.988926598084433</v>
       </c>
       <c r="S36" t="n">
         <v>144.1093279635753</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.8493518267573</v>
+        <v>34.03611070768102</v>
       </c>
       <c r="C37" t="n">
         <v>21.45095162437156</v>
@@ -3439,7 +3439,7 @@
         <v>20.95055916124407</v>
       </c>
       <c r="H37" t="n">
-        <v>5.366115696334887</v>
+        <v>5.366115696334885</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>56.53160369079534</v>
+        <v>153.3448448098716</v>
       </c>
       <c r="T37" t="n">
-        <v>222.6279636120047</v>
+        <v>76.83209413774837</v>
       </c>
       <c r="U37" t="n">
         <v>140.455275297346</v>
       </c>
       <c r="V37" t="n">
-        <v>106.3417738495717</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>140.7271288623347</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>79.91378591478087</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>72.78878387783851</v>
       </c>
     </row>
     <row r="38">
@@ -3554,10 +3554,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>65.1545522899746</v>
+        <v>65.15455228997497</v>
       </c>
       <c r="U38" t="n">
-        <v>105.3278224458036</v>
+        <v>105.3278224458034</v>
       </c>
       <c r="V38" t="n">
         <v>181.9563889958786</v>
@@ -3600,7 +3600,7 @@
         <v>97.89834799213801</v>
       </c>
       <c r="I39" t="n">
-        <v>38.28573116285295</v>
+        <v>38.28573116285294</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>7.988926598084447</v>
+        <v>7.988926598084433</v>
       </c>
       <c r="S39" t="n">
         <v>144.1093279635753</v>
@@ -3664,7 +3664,7 @@
         <v>21.45095162437156</v>
       </c>
       <c r="D40" t="n">
-        <v>2.819603543956077</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0.6380931723128924</v>
@@ -3676,7 +3676,7 @@
         <v>20.95055916124407</v>
       </c>
       <c r="H40" t="n">
-        <v>5.366115696334887</v>
+        <v>5.366115696334885</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,19 +3709,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>202.3274731650516</v>
+        <v>56.53160369079534</v>
       </c>
       <c r="T40" t="n">
-        <v>173.6453352568247</v>
+        <v>76.83209413774837</v>
       </c>
       <c r="U40" t="n">
         <v>140.455275297346</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>203.1550149686479</v>
       </c>
       <c r="W40" t="n">
-        <v>140.7271288623347</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>79.91378591478087</v>
@@ -3791,10 +3791,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>65.15455228997462</v>
+        <v>65.15455228997497</v>
       </c>
       <c r="U41" t="n">
-        <v>105.3278224458036</v>
+        <v>105.327822445803</v>
       </c>
       <c r="V41" t="n">
         <v>181.9563889958786</v>
@@ -3837,7 +3837,7 @@
         <v>97.89834799213801</v>
       </c>
       <c r="I42" t="n">
-        <v>38.28573116285295</v>
+        <v>38.28573116285294</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>7.988926598084447</v>
+        <v>7.988926598084433</v>
       </c>
       <c r="S42" t="n">
         <v>144.1093279635753</v>
@@ -3907,13 +3907,13 @@
         <v>0.6380931723128924</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>20.95055916124407</v>
       </c>
       <c r="H43" t="n">
-        <v>5.366115696334887</v>
+        <v>5.366115696334885</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>202.3274731650516</v>
+        <v>56.53160369079534</v>
       </c>
       <c r="T43" t="n">
         <v>76.83209413774837</v>
@@ -3958,13 +3958,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>140.7271288623347</v>
+        <v>237.9151914327361</v>
       </c>
       <c r="X43" t="n">
         <v>79.91378591478087</v>
       </c>
       <c r="Y43" t="n">
-        <v>169.6020249969147</v>
+        <v>72.78878387783851</v>
       </c>
     </row>
     <row r="44">
@@ -4028,16 +4028,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>65.1545522899746</v>
+        <v>65.15455228997463</v>
       </c>
       <c r="U44" t="n">
         <v>105.3278224458036</v>
       </c>
       <c r="V44" t="n">
-        <v>181.9563889958786</v>
+        <v>181.9563889958787</v>
       </c>
       <c r="W44" t="n">
-        <v>203.4450992431567</v>
+        <v>203.4450992431568</v>
       </c>
       <c r="X44" t="n">
         <v>223.9352312042128</v>
@@ -4071,10 +4071,10 @@
         <v>135.8590221842308</v>
       </c>
       <c r="H45" t="n">
-        <v>97.89834799213801</v>
+        <v>97.898347992138</v>
       </c>
       <c r="I45" t="n">
-        <v>38.28573116285295</v>
+        <v>38.28573116285291</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>7.988926598084447</v>
+        <v>7.988926598084376</v>
       </c>
       <c r="S45" t="n">
         <v>144.1093279635753</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34.03611070768102</v>
+        <v>131.2241732780825</v>
       </c>
       <c r="C46" t="n">
-        <v>21.45095162437156</v>
+        <v>21.45095162437158</v>
       </c>
       <c r="D46" t="n">
-        <v>2.819603543956077</v>
+        <v>2.819603543956106</v>
       </c>
       <c r="E46" t="n">
-        <v>0.6380931723128924</v>
+        <v>0.6380931723129208</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>20.95055916124407</v>
+        <v>20.9505591612441</v>
       </c>
       <c r="H46" t="n">
-        <v>5.366115696334887</v>
+        <v>5.366115696334909</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>121.3338652339668</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>56.53160369079534</v>
+        <v>56.53160369079536</v>
       </c>
       <c r="T46" t="n">
-        <v>76.83209413774837</v>
+        <v>76.8320941377484</v>
       </c>
       <c r="U46" t="n">
-        <v>140.455275297346</v>
+        <v>286.2511447716022</v>
       </c>
       <c r="V46" t="n">
-        <v>106.3417738495717</v>
+        <v>106.3417738495718</v>
       </c>
       <c r="W46" t="n">
-        <v>140.7271288623347</v>
+        <v>140.7271288623348</v>
       </c>
       <c r="X46" t="n">
-        <v>201.1890312741464</v>
+        <v>79.9137859147809</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>72.78878387783854</v>
       </c>
     </row>
   </sheetData>
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>36.40232520199299</v>
+        <v>1527.836296232554</v>
       </c>
       <c r="C11" t="n">
-        <v>36.40232520199299</v>
+        <v>1239.246237680306</v>
       </c>
       <c r="D11" t="n">
-        <v>36.40232520199299</v>
+        <v>961.3529974617201</v>
       </c>
       <c r="E11" t="n">
-        <v>36.40232520199299</v>
+        <v>961.3529974617201</v>
       </c>
       <c r="F11" t="n">
-        <v>36.40232520199299</v>
+        <v>630.7395510602767</v>
       </c>
       <c r="G11" t="n">
-        <v>36.40232520199299</v>
+        <v>294.4168325111405</v>
       </c>
       <c r="H11" t="n">
-        <v>36.40232520199299</v>
+        <v>60.58693984887111</v>
       </c>
       <c r="I11" t="n">
         <v>36.40232520199299</v>
       </c>
       <c r="J11" t="n">
-        <v>90.29531437608122</v>
+        <v>90.29531437608128</v>
       </c>
       <c r="K11" t="n">
-        <v>221.8054530777752</v>
+        <v>221.8054530777753</v>
       </c>
       <c r="L11" t="n">
-        <v>421.8571709171031</v>
+        <v>421.8571709171034</v>
       </c>
       <c r="M11" t="n">
-        <v>676.1226902968218</v>
+        <v>676.1226902968222</v>
       </c>
       <c r="N11" t="n">
-        <v>939.1162999853536</v>
+        <v>1126.601464671485</v>
       </c>
       <c r="O11" t="n">
-        <v>1174.118446746022</v>
+        <v>1553.339849752522</v>
       </c>
       <c r="P11" t="n">
-        <v>1624.597221120685</v>
+        <v>1719.407744186977</v>
       </c>
       <c r="Q11" t="n">
         <v>1795.945070243422</v>
@@ -5069,22 +5069,22 @@
         <v>1753.220163463312</v>
       </c>
       <c r="T11" t="n">
-        <v>1620.511387746192</v>
+        <v>1753.220163463312</v>
       </c>
       <c r="U11" t="n">
-        <v>1447.223551265609</v>
+        <v>1753.220163463312</v>
       </c>
       <c r="V11" t="n">
-        <v>1196.533122310203</v>
+        <v>1527.836296232554</v>
       </c>
       <c r="W11" t="n">
-        <v>924.1369254282528</v>
+        <v>1527.836296232554</v>
       </c>
       <c r="X11" t="n">
-        <v>631.043625555337</v>
+        <v>1527.836296232554</v>
       </c>
       <c r="Y11" t="n">
-        <v>342.6297068779506</v>
+        <v>1527.836296232554</v>
       </c>
     </row>
     <row r="12">
@@ -5094,7 +5094,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>419.4455825276627</v>
+        <v>499.8180409158268</v>
       </c>
       <c r="C12" t="n">
         <v>325.3650116346998</v>
@@ -5103,13 +5103,13 @@
         <v>256.8030603616127</v>
       </c>
       <c r="E12" t="n">
-        <v>177.9380637443214</v>
+        <v>177.9380637443213</v>
       </c>
       <c r="F12" t="n">
         <v>111.7759641593705</v>
       </c>
       <c r="G12" t="n">
-        <v>54.91708700790763</v>
+        <v>54.91708700790762</v>
       </c>
       <c r="H12" t="n">
         <v>36.40232520199299</v>
@@ -5121,16 +5121,16 @@
         <v>49.68277339315014</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5359993554282</v>
+        <v>150.5359993554283</v>
       </c>
       <c r="L12" t="n">
-        <v>332.4681488779828</v>
+        <v>332.4681488779829</v>
       </c>
       <c r="M12" t="n">
-        <v>564.1312543579555</v>
+        <v>564.1312543579556</v>
       </c>
       <c r="N12" t="n">
-        <v>816.334437820646</v>
+        <v>816.3344378206461</v>
       </c>
       <c r="O12" t="n">
         <v>1112.643390152233</v>
@@ -5145,25 +5145,25 @@
         <v>1812.046637273301</v>
       </c>
       <c r="S12" t="n">
-        <v>1666.481659532316</v>
+        <v>1746.85411792048</v>
       </c>
       <c r="T12" t="n">
-        <v>1470.339061372043</v>
+        <v>1550.711519760207</v>
       </c>
       <c r="U12" t="n">
-        <v>1242.214093758285</v>
+        <v>1322.586552146449</v>
       </c>
       <c r="V12" t="n">
-        <v>1007.061985526542</v>
+        <v>1167.80690230287</v>
       </c>
       <c r="W12" t="n">
-        <v>833.1970871865047</v>
+        <v>922.9002601300533</v>
       </c>
       <c r="X12" t="n">
-        <v>634.6763015363563</v>
+        <v>795.4212183126847</v>
       </c>
       <c r="Y12" t="n">
-        <v>507.2884611595666</v>
+        <v>587.6609195477307</v>
       </c>
     </row>
     <row r="13">
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>527.9861862334151</v>
+        <v>527.986186233416</v>
       </c>
       <c r="C13" t="n">
-        <v>439.4224616936723</v>
+        <v>439.4224616936732</v>
       </c>
       <c r="D13" t="n">
-        <v>369.6782806695007</v>
+        <v>369.6782806695016</v>
       </c>
       <c r="E13" t="n">
-        <v>302.1376454752718</v>
+        <v>302.1376454752727</v>
       </c>
       <c r="F13" t="n">
-        <v>235.6201563655256</v>
+        <v>235.6201563655265</v>
       </c>
       <c r="G13" t="n">
-        <v>147.5618787582349</v>
+        <v>147.5618787582357</v>
       </c>
       <c r="H13" t="n">
-        <v>75.24546323671098</v>
+        <v>75.24546323671211</v>
       </c>
       <c r="I13" t="n">
         <v>36.40232520199299</v>
       </c>
       <c r="J13" t="n">
-        <v>109.8596221047544</v>
+        <v>109.8596221047545</v>
       </c>
       <c r="K13" t="n">
-        <v>309.7340958180463</v>
+        <v>309.7340958180464</v>
       </c>
       <c r="L13" t="n">
-        <v>599.0017100013554</v>
+        <v>599.0017100013556</v>
       </c>
       <c r="M13" t="n">
-        <v>910.1008877035639</v>
+        <v>910.1008877035642</v>
       </c>
       <c r="N13" t="n">
         <v>1221.11048570127</v>
@@ -5224,10 +5224,10 @@
         <v>1777.929258655524</v>
       </c>
       <c r="S13" t="n">
-        <v>1653.930532028485</v>
+        <v>1653.930532028484</v>
       </c>
       <c r="T13" t="n">
-        <v>1509.426259495432</v>
+        <v>1509.426259495431</v>
       </c>
       <c r="U13" t="n">
         <v>1300.65614740723</v>
@@ -5239,10 +5239,10 @@
         <v>917.2994059407106</v>
       </c>
       <c r="X13" t="n">
-        <v>769.6823134308573</v>
+        <v>769.6823134308574</v>
       </c>
       <c r="Y13" t="n">
-        <v>629.2621926754906</v>
+        <v>629.2621926754915</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>697.414782285288</v>
+        <v>1007.181655872937</v>
       </c>
       <c r="C14" t="n">
-        <v>408.8247237330404</v>
+        <v>718.5915973206883</v>
       </c>
       <c r="D14" t="n">
-        <v>130.931483514454</v>
+        <v>718.5915973206883</v>
       </c>
       <c r="E14" t="n">
-        <v>74.23424808874225</v>
+        <v>638.6775871524549</v>
       </c>
       <c r="F14" t="n">
-        <v>74.23424808874225</v>
+        <v>308.0641407510116</v>
       </c>
       <c r="G14" t="n">
-        <v>74.23424808874225</v>
+        <v>308.0641407510116</v>
       </c>
       <c r="H14" t="n">
         <v>74.23424808874225</v>
       </c>
       <c r="I14" t="n">
-        <v>50.04963344186411</v>
+        <v>50.04963344186412</v>
       </c>
       <c r="J14" t="n">
         <v>103.9426226159524</v>
       </c>
       <c r="K14" t="n">
-        <v>235.4527613176463</v>
+        <v>235.4527613176465</v>
       </c>
       <c r="L14" t="n">
-        <v>435.5044791569743</v>
+        <v>848.9890815619204</v>
       </c>
       <c r="M14" t="n">
-        <v>689.7699985366929</v>
+        <v>1468.353295404989</v>
       </c>
       <c r="N14" t="n">
-        <v>1094.938373692218</v>
+        <v>1731.346905093521</v>
       </c>
       <c r="O14" t="n">
-        <v>1706.932699903004</v>
+        <v>1966.34905185419</v>
       </c>
       <c r="P14" t="n">
-        <v>2191.581315427227</v>
+        <v>2191.581315427228</v>
       </c>
       <c r="Q14" t="n">
-        <v>2478.310482236978</v>
+        <v>2478.310482236979</v>
       </c>
       <c r="R14" t="n">
-        <v>2502.481672093205</v>
+        <v>2502.481672093206</v>
       </c>
       <c r="S14" t="n">
-        <v>2435.585575456868</v>
+        <v>2435.585575456869</v>
       </c>
       <c r="T14" t="n">
-        <v>2302.876799739749</v>
+        <v>2302.87679973975</v>
       </c>
       <c r="U14" t="n">
-        <v>2129.588963259166</v>
+        <v>2129.588963259167</v>
       </c>
       <c r="V14" t="n">
-        <v>1878.898534303759</v>
+        <v>1878.89853430376</v>
       </c>
       <c r="W14" t="n">
-        <v>1606.502337421809</v>
+        <v>1606.50233742181</v>
       </c>
       <c r="X14" t="n">
-        <v>1313.409037548893</v>
+        <v>1313.409037548894</v>
       </c>
       <c r="Y14" t="n">
-        <v>1003.642163961246</v>
+        <v>1313.409037548894</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>851.3629048013418</v>
+        <v>851.3629048013427</v>
       </c>
       <c r="C15" t="n">
-        <v>676.9098755202148</v>
+        <v>699.174609147281</v>
       </c>
       <c r="D15" t="n">
-        <v>527.9754658589635</v>
+        <v>550.2401994860297</v>
       </c>
       <c r="E15" t="n">
-        <v>368.738010853508</v>
+        <v>391.0027444805743</v>
       </c>
       <c r="F15" t="n">
-        <v>222.203452880393</v>
+        <v>244.4681865074593</v>
       </c>
       <c r="G15" t="n">
-        <v>148.9368536359429</v>
+        <v>187.6093093559964</v>
       </c>
       <c r="H15" t="n">
-        <v>50.04963344186411</v>
+        <v>88.72208916191761</v>
       </c>
       <c r="I15" t="n">
-        <v>50.04963344186411</v>
+        <v>50.04963344186412</v>
       </c>
       <c r="J15" t="n">
-        <v>63.33008163302126</v>
+        <v>63.33008163302127</v>
       </c>
       <c r="K15" t="n">
-        <v>164.1833075952993</v>
+        <v>164.1833075952994</v>
       </c>
       <c r="L15" t="n">
-        <v>346.1154571178539</v>
+        <v>346.115457117854</v>
       </c>
       <c r="M15" t="n">
-        <v>965.4796709609222</v>
+        <v>577.7785625978267</v>
       </c>
       <c r="N15" t="n">
-        <v>1217.682854423613</v>
+        <v>1183.784859804047</v>
       </c>
       <c r="O15" t="n">
-        <v>1816.103396285974</v>
+        <v>1782.205401666408</v>
       </c>
       <c r="P15" t="n">
-        <v>2245.487576520453</v>
+        <v>2245.487576520454</v>
       </c>
       <c r="Q15" t="n">
-        <v>2502.481672093205</v>
+        <v>2502.481672093206</v>
       </c>
       <c r="R15" t="n">
-        <v>2494.412049266858</v>
+        <v>2494.412049266859</v>
       </c>
       <c r="S15" t="n">
-        <v>2348.847071525872</v>
+        <v>2348.847071525873</v>
       </c>
       <c r="T15" t="n">
-        <v>2152.704473365599</v>
+        <v>2152.7044733656</v>
       </c>
       <c r="U15" t="n">
-        <v>1924.579505751841</v>
+        <v>1924.579505751842</v>
       </c>
       <c r="V15" t="n">
-        <v>1689.427397520098</v>
+        <v>1689.427397520099</v>
       </c>
       <c r="W15" t="n">
         <v>1435.190040791897</v>
       </c>
       <c r="X15" t="n">
-        <v>1227.338540586364</v>
+        <v>1227.338540586365</v>
       </c>
       <c r="Y15" t="n">
-        <v>1019.57824182141</v>
+        <v>1019.578241821411</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>541.6334944732871</v>
+        <v>541.6334944732876</v>
       </c>
       <c r="C16" t="n">
-        <v>453.0697699335444</v>
+        <v>453.0697699335448</v>
       </c>
       <c r="D16" t="n">
-        <v>383.3255889093729</v>
+        <v>383.3255889093733</v>
       </c>
       <c r="E16" t="n">
-        <v>315.7849537151439</v>
+        <v>315.7849537151443</v>
       </c>
       <c r="F16" t="n">
-        <v>249.2674646053977</v>
+        <v>249.2674646053981</v>
       </c>
       <c r="G16" t="n">
-        <v>161.2091869981069</v>
+        <v>161.2091869981074</v>
       </c>
       <c r="H16" t="n">
-        <v>88.89277147658305</v>
+        <v>88.8927714765835</v>
       </c>
       <c r="I16" t="n">
-        <v>50.04963344186411</v>
+        <v>50.04963344186412</v>
       </c>
       <c r="J16" t="n">
         <v>123.5069303446257</v>
@@ -5440,13 +5440,13 @@
         <v>323.3814040579176</v>
       </c>
       <c r="L16" t="n">
-        <v>612.6490182412267</v>
+        <v>612.6490182412268</v>
       </c>
       <c r="M16" t="n">
-        <v>923.7481959434351</v>
+        <v>923.7481959434353</v>
       </c>
       <c r="N16" t="n">
-        <v>1234.757793941141</v>
+        <v>1234.757793941142</v>
       </c>
       <c r="O16" t="n">
         <v>1512.022588807297</v>
@@ -5455,13 +5455,13 @@
         <v>1737.118934309929</v>
       </c>
       <c r="Q16" t="n">
-        <v>1833.76356833952</v>
+        <v>1833.763568339521</v>
       </c>
       <c r="R16" t="n">
         <v>1791.576566895395</v>
       </c>
       <c r="S16" t="n">
-        <v>1667.577840268355</v>
+        <v>1667.577840268356</v>
       </c>
       <c r="T16" t="n">
         <v>1523.073567735303</v>
@@ -5470,16 +5470,16 @@
         <v>1314.303455647101</v>
       </c>
       <c r="V16" t="n">
-        <v>1139.991425829378</v>
+        <v>1139.991425829379</v>
       </c>
       <c r="W16" t="n">
-        <v>930.9467141805817</v>
+        <v>930.9467141805821</v>
       </c>
       <c r="X16" t="n">
-        <v>783.3296216707286</v>
+        <v>783.329621670729</v>
       </c>
       <c r="Y16" t="n">
-        <v>642.9095009153626</v>
+        <v>642.9095009153631</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1326.918087638774</v>
+        <v>1326.918087638776</v>
       </c>
       <c r="C17" t="n">
-        <v>1118.700487474691</v>
+        <v>1118.700487474693</v>
       </c>
       <c r="D17" t="n">
-        <v>921.1797056442688</v>
+        <v>934.7416517121364</v>
       </c>
       <c r="E17" t="n">
-        <v>696.1363698223529</v>
+        <v>709.6983158902206</v>
       </c>
       <c r="F17" t="n">
-        <v>459.4573278769416</v>
+        <v>459.4573278769415</v>
       </c>
       <c r="G17" t="n">
         <v>203.5070677159693</v>
       </c>
       <c r="H17" t="n">
-        <v>50.04963344186411</v>
+        <v>50.04963344186412</v>
       </c>
       <c r="I17" t="n">
-        <v>50.04963344186411</v>
+        <v>50.04963344186412</v>
       </c>
       <c r="J17" t="n">
         <v>103.9426226159524</v>
       </c>
       <c r="K17" t="n">
-        <v>235.4527613176463</v>
+        <v>235.4527613176465</v>
       </c>
       <c r="L17" t="n">
-        <v>589.5727296107356</v>
+        <v>848.9890815619204</v>
       </c>
       <c r="M17" t="n">
-        <v>1208.936943453804</v>
+        <v>1103.254600941639</v>
       </c>
       <c r="N17" t="n">
-        <v>1471.930553142336</v>
+        <v>1366.248210630171</v>
       </c>
       <c r="O17" t="n">
-        <v>1706.932699903004</v>
+        <v>1978.242536840957</v>
       </c>
       <c r="P17" t="n">
-        <v>2191.581315427227</v>
+        <v>2401.773156180534</v>
       </c>
       <c r="Q17" t="n">
-        <v>2478.310482236978</v>
+        <v>2478.310482236979</v>
       </c>
       <c r="R17" t="n">
-        <v>2502.481672093205</v>
+        <v>2502.481672093206</v>
       </c>
       <c r="S17" t="n">
-        <v>2502.481672093205</v>
+        <v>2502.481672093206</v>
       </c>
       <c r="T17" t="n">
-        <v>2450.14535476425</v>
+        <v>2450.145354764251</v>
       </c>
       <c r="U17" t="n">
-        <v>2357.229976671831</v>
+        <v>2357.229976671832</v>
       </c>
       <c r="V17" t="n">
-        <v>2186.912006104589</v>
+        <v>2186.91200610459</v>
       </c>
       <c r="W17" t="n">
-        <v>1994.888267610803</v>
+        <v>1994.888267610804</v>
       </c>
       <c r="X17" t="n">
-        <v>1782.167426126051</v>
+        <v>1782.167426126053</v>
       </c>
       <c r="Y17" t="n">
-        <v>1552.773010926568</v>
+        <v>1552.773010926569</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>851.3629048013418</v>
+        <v>851.3629048013427</v>
       </c>
       <c r="C18" t="n">
-        <v>676.9098755202148</v>
+        <v>676.9098755202157</v>
       </c>
       <c r="D18" t="n">
-        <v>527.9754658589635</v>
+        <v>527.9754658589644</v>
       </c>
       <c r="E18" t="n">
-        <v>368.738010853508</v>
+        <v>471.3752028687385</v>
       </c>
       <c r="F18" t="n">
-        <v>222.203452880393</v>
+        <v>324.8406448956234</v>
       </c>
       <c r="G18" t="n">
         <v>187.6093093559964</v>
       </c>
       <c r="H18" t="n">
-        <v>88.72208916191759</v>
+        <v>88.72208916191761</v>
       </c>
       <c r="I18" t="n">
-        <v>50.04963344186411</v>
+        <v>50.04963344186412</v>
       </c>
       <c r="J18" t="n">
-        <v>63.33008163302126</v>
+        <v>63.33008163302127</v>
       </c>
       <c r="K18" t="n">
-        <v>164.1833075952993</v>
+        <v>164.1833075952994</v>
       </c>
       <c r="L18" t="n">
-        <v>346.1154571178539</v>
+        <v>346.115457117854</v>
       </c>
       <c r="M18" t="n">
-        <v>577.7785625978266</v>
+        <v>577.7785625978267</v>
       </c>
       <c r="N18" t="n">
-        <v>1183.784859804046</v>
+        <v>1197.142776440895</v>
       </c>
       <c r="O18" t="n">
-        <v>1782.205401666407</v>
+        <v>1782.205401666408</v>
       </c>
       <c r="P18" t="n">
-        <v>2245.487576520453</v>
+        <v>2245.487576520454</v>
       </c>
       <c r="Q18" t="n">
-        <v>2502.481672093205</v>
+        <v>2502.481672093206</v>
       </c>
       <c r="R18" t="n">
-        <v>2494.412049266858</v>
+        <v>2494.412049266859</v>
       </c>
       <c r="S18" t="n">
-        <v>2348.847071525872</v>
+        <v>2348.847071525873</v>
       </c>
       <c r="T18" t="n">
-        <v>2152.704473365599</v>
+        <v>2152.7044733656</v>
       </c>
       <c r="U18" t="n">
-        <v>1924.579505751841</v>
+        <v>1924.579505751842</v>
       </c>
       <c r="V18" t="n">
-        <v>1689.427397520098</v>
+        <v>1689.427397520099</v>
       </c>
       <c r="W18" t="n">
         <v>1435.190040791897</v>
       </c>
       <c r="X18" t="n">
-        <v>1227.338540586364</v>
+        <v>1227.338540586365</v>
       </c>
       <c r="Y18" t="n">
-        <v>1019.57824182141</v>
+        <v>1019.578241821411</v>
       </c>
     </row>
     <row r="19">
@@ -5647,43 +5647,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>65.92671881256928</v>
+        <v>65.92671881256918</v>
       </c>
       <c r="C19" t="n">
-        <v>57.7354526609907</v>
+        <v>57.73545266099065</v>
       </c>
       <c r="D19" t="n">
-        <v>57.7354526609907</v>
+        <v>57.73545266099065</v>
       </c>
       <c r="E19" t="n">
-        <v>57.7354526609907</v>
+        <v>57.73545266099065</v>
       </c>
       <c r="F19" t="n">
-        <v>57.7354526609907</v>
+        <v>57.73545266099065</v>
       </c>
       <c r="G19" t="n">
-        <v>50.04963344186411</v>
+        <v>50.04963344186412</v>
       </c>
       <c r="H19" t="n">
-        <v>50.04963344186411</v>
+        <v>50.04963344186412</v>
       </c>
       <c r="I19" t="n">
-        <v>50.04963344186411</v>
+        <v>50.04963344186412</v>
       </c>
       <c r="J19" t="n">
-        <v>50.04963344186411</v>
+        <v>50.04963344186412</v>
       </c>
       <c r="K19" t="n">
         <v>171.1510606889163</v>
       </c>
       <c r="L19" t="n">
-        <v>381.6456284059857</v>
+        <v>381.6456284059858</v>
       </c>
       <c r="M19" t="n">
-        <v>613.9717596419545</v>
+        <v>613.9717596419546</v>
       </c>
       <c r="N19" t="n">
-        <v>846.2083111734211</v>
+        <v>846.2083111734212</v>
       </c>
       <c r="O19" t="n">
         <v>1044.700059573337</v>
@@ -5695,28 +5695,28 @@
         <v>1208.894946173081</v>
       </c>
       <c r="R19" t="n">
-        <v>1208.894946173081</v>
+        <v>1155.124874458348</v>
       </c>
       <c r="S19" t="n">
-        <v>1165.268677934206</v>
+        <v>950.7536894431447</v>
       </c>
       <c r="T19" t="n">
-        <v>1047.366792074585</v>
+        <v>886.6218752982562</v>
       </c>
       <c r="U19" t="n">
-        <v>758.2242215982189</v>
+        <v>758.2242215982187</v>
       </c>
       <c r="V19" t="n">
-        <v>664.2846501686604</v>
+        <v>503.5397333923319</v>
       </c>
       <c r="W19" t="n">
-        <v>535.6123969080281</v>
+        <v>374.8674801316996</v>
       </c>
       <c r="X19" t="n">
-        <v>468.3677627863391</v>
+        <v>307.6228460100106</v>
       </c>
       <c r="Y19" t="n">
-        <v>247.575183642809</v>
+        <v>86.8302668664805</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1326.918087638774</v>
+        <v>1340.480033706642</v>
       </c>
       <c r="C20" t="n">
-        <v>1118.700487474691</v>
+        <v>1132.262433542558</v>
       </c>
       <c r="D20" t="n">
-        <v>921.1797056442688</v>
+        <v>934.7416517121361</v>
       </c>
       <c r="E20" t="n">
-        <v>696.1363698223529</v>
+        <v>709.6983158902202</v>
       </c>
       <c r="F20" t="n">
-        <v>459.4573278769417</v>
+        <v>459.457327876941</v>
       </c>
       <c r="G20" t="n">
         <v>203.5070677159693</v>
       </c>
       <c r="H20" t="n">
-        <v>50.04963344186411</v>
+        <v>50.04963344186412</v>
       </c>
       <c r="I20" t="n">
-        <v>50.04963344186411</v>
+        <v>50.04963344186412</v>
       </c>
       <c r="J20" t="n">
-        <v>103.9426226159524</v>
+        <v>271.3482716363055</v>
       </c>
       <c r="K20" t="n">
-        <v>235.4527613176463</v>
+        <v>723.7623687834526</v>
       </c>
       <c r="L20" t="n">
-        <v>435.5044791569743</v>
+        <v>923.8140866227807</v>
       </c>
       <c r="M20" t="n">
-        <v>689.7699985366929</v>
+        <v>1543.178300465849</v>
       </c>
       <c r="N20" t="n">
-        <v>1094.938373692218</v>
+        <v>1806.171910154381</v>
       </c>
       <c r="O20" t="n">
-        <v>1706.932699903004</v>
+        <v>2259.876451602306</v>
       </c>
       <c r="P20" t="n">
-        <v>2191.581315427227</v>
+        <v>2425.944346036761</v>
       </c>
       <c r="Q20" t="n">
-        <v>2478.310482236978</v>
+        <v>2502.481672093206</v>
       </c>
       <c r="R20" t="n">
-        <v>2502.481672093205</v>
+        <v>2502.481672093206</v>
       </c>
       <c r="S20" t="n">
-        <v>2502.481672093205</v>
+        <v>2502.481672093206</v>
       </c>
       <c r="T20" t="n">
-        <v>2450.14535476425</v>
+        <v>2450.145354764251</v>
       </c>
       <c r="U20" t="n">
-        <v>2357.229976671831</v>
+        <v>2357.229976671832</v>
       </c>
       <c r="V20" t="n">
-        <v>2186.912006104589</v>
+        <v>2186.91200610459</v>
       </c>
       <c r="W20" t="n">
-        <v>1994.888267610803</v>
+        <v>1994.888267610804</v>
       </c>
       <c r="X20" t="n">
-        <v>1782.167426126051</v>
+        <v>1795.729372193918</v>
       </c>
       <c r="Y20" t="n">
-        <v>1552.773010926568</v>
+        <v>1566.334956994435</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>851.3629048013418</v>
+        <v>851.3629048013427</v>
       </c>
       <c r="C21" t="n">
-        <v>676.9098755202148</v>
+        <v>676.9098755202157</v>
       </c>
       <c r="D21" t="n">
-        <v>527.9754658589635</v>
+        <v>527.9754658589644</v>
       </c>
       <c r="E21" t="n">
-        <v>368.738010853508</v>
+        <v>368.7380108535089</v>
       </c>
       <c r="F21" t="n">
-        <v>222.203452880393</v>
+        <v>222.2034528803939</v>
       </c>
       <c r="G21" t="n">
-        <v>84.97211734076595</v>
+        <v>84.97211734076686</v>
       </c>
       <c r="H21" t="n">
-        <v>84.97211734076595</v>
+        <v>50.04963344186412</v>
       </c>
       <c r="I21" t="n">
-        <v>50.04963344186411</v>
+        <v>50.04963344186412</v>
       </c>
       <c r="J21" t="n">
-        <v>63.33008163302126</v>
+        <v>63.33008163302127</v>
       </c>
       <c r="K21" t="n">
-        <v>164.1833075952993</v>
+        <v>164.1833075952994</v>
       </c>
       <c r="L21" t="n">
-        <v>346.1154571178539</v>
+        <v>346.115457117854</v>
       </c>
       <c r="M21" t="n">
-        <v>577.7785625978266</v>
+        <v>577.7785625978267</v>
       </c>
       <c r="N21" t="n">
-        <v>1183.784859804046</v>
+        <v>1197.142776440895</v>
       </c>
       <c r="O21" t="n">
-        <v>1782.205401666407</v>
+        <v>1795.563318303257</v>
       </c>
       <c r="P21" t="n">
-        <v>2245.487576520453</v>
+        <v>2245.487576520454</v>
       </c>
       <c r="Q21" t="n">
-        <v>2502.481672093205</v>
+        <v>2502.481672093206</v>
       </c>
       <c r="R21" t="n">
-        <v>2494.412049266858</v>
+        <v>2494.412049266859</v>
       </c>
       <c r="S21" t="n">
-        <v>2348.847071525872</v>
+        <v>2348.847071525873</v>
       </c>
       <c r="T21" t="n">
-        <v>2152.704473365599</v>
+        <v>2152.7044733656</v>
       </c>
       <c r="U21" t="n">
-        <v>1924.579505751841</v>
+        <v>1924.579505751842</v>
       </c>
       <c r="V21" t="n">
-        <v>1689.427397520098</v>
+        <v>1689.427397520099</v>
       </c>
       <c r="W21" t="n">
         <v>1435.190040791897</v>
       </c>
       <c r="X21" t="n">
-        <v>1227.338540586364</v>
+        <v>1227.338540586365</v>
       </c>
       <c r="Y21" t="n">
-        <v>1019.57824182141</v>
+        <v>1019.578241821411</v>
       </c>
     </row>
     <row r="22">
@@ -5884,43 +5884,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>226.6716355888976</v>
+        <v>65.92671881256918</v>
       </c>
       <c r="C22" t="n">
-        <v>57.7354526609907</v>
+        <v>57.73545266099065</v>
       </c>
       <c r="D22" t="n">
-        <v>57.7354526609907</v>
+        <v>57.73545266099065</v>
       </c>
       <c r="E22" t="n">
-        <v>57.7354526609907</v>
+        <v>57.73545266099065</v>
       </c>
       <c r="F22" t="n">
-        <v>57.7354526609907</v>
+        <v>57.73545266099065</v>
       </c>
       <c r="G22" t="n">
-        <v>50.04963344186411</v>
+        <v>50.04963344186412</v>
       </c>
       <c r="H22" t="n">
-        <v>50.04963344186411</v>
+        <v>50.04963344186412</v>
       </c>
       <c r="I22" t="n">
-        <v>50.04963344186411</v>
+        <v>50.04963344186412</v>
       </c>
       <c r="J22" t="n">
-        <v>50.04963344186411</v>
+        <v>50.04963344186412</v>
       </c>
       <c r="K22" t="n">
         <v>171.1510606889163</v>
       </c>
       <c r="L22" t="n">
-        <v>381.6456284059857</v>
+        <v>381.6456284059858</v>
       </c>
       <c r="M22" t="n">
-        <v>613.9717596419545</v>
+        <v>613.9717596419546</v>
       </c>
       <c r="N22" t="n">
-        <v>846.2083111734211</v>
+        <v>846.2083111734212</v>
       </c>
       <c r="O22" t="n">
         <v>1044.700059573337</v>
@@ -5932,28 +5932,28 @@
         <v>1208.894946173081</v>
       </c>
       <c r="R22" t="n">
-        <v>1086.335486340791</v>
+        <v>1155.124874458349</v>
       </c>
       <c r="S22" t="n">
-        <v>1042.709218101916</v>
+        <v>1111.498606219473</v>
       </c>
       <c r="T22" t="n">
-        <v>978.5774039570274</v>
+        <v>1047.366792074585</v>
       </c>
       <c r="U22" t="n">
-        <v>850.1797502569898</v>
+        <v>758.2242215982187</v>
       </c>
       <c r="V22" t="n">
-        <v>756.2401788274312</v>
+        <v>503.5397333923319</v>
       </c>
       <c r="W22" t="n">
-        <v>627.567925566799</v>
+        <v>374.8674801316996</v>
       </c>
       <c r="X22" t="n">
-        <v>468.3677627863391</v>
+        <v>307.6228460100106</v>
       </c>
       <c r="Y22" t="n">
-        <v>247.575183642809</v>
+        <v>247.5751836428089</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1340.756808116191</v>
+        <v>1340.75680811619</v>
       </c>
       <c r="C23" t="n">
-        <v>1132.539207952108</v>
+        <v>1132.539207952107</v>
       </c>
       <c r="D23" t="n">
-        <v>935.0184261216857</v>
+        <v>935.0184261216845</v>
       </c>
       <c r="E23" t="n">
-        <v>709.9750902997698</v>
+        <v>709.9750902997686</v>
       </c>
       <c r="F23" t="n">
-        <v>459.7341022864907</v>
+        <v>459.7341022864894</v>
       </c>
       <c r="G23" t="n">
-        <v>203.7838421255177</v>
+        <v>203.7838421255176</v>
       </c>
       <c r="H23" t="n">
-        <v>50.32640785141244</v>
+        <v>50.32640785141243</v>
       </c>
       <c r="I23" t="n">
-        <v>50.32640785141244</v>
+        <v>50.32640785141243</v>
       </c>
       <c r="J23" t="n">
         <v>104.2193970255007</v>
       </c>
       <c r="K23" t="n">
-        <v>235.7295357271947</v>
+        <v>556.6334941726479</v>
       </c>
       <c r="L23" t="n">
-        <v>435.7812535665226</v>
+        <v>756.685212011976</v>
       </c>
       <c r="M23" t="n">
-        <v>690.0467729462413</v>
+        <v>1379.474509173205</v>
       </c>
       <c r="N23" t="n">
-        <v>1108.777094169635</v>
+        <v>1642.468118861736</v>
       </c>
       <c r="O23" t="n">
-        <v>1720.771420380421</v>
+        <v>2254.462445072523</v>
       </c>
       <c r="P23" t="n">
-        <v>2205.420035904644</v>
+        <v>2439.783066514176</v>
       </c>
       <c r="Q23" t="n">
-        <v>2492.149202714395</v>
+        <v>2516.320392570621</v>
       </c>
       <c r="R23" t="n">
-        <v>2516.320392570622</v>
+        <v>2516.320392570621</v>
       </c>
       <c r="S23" t="n">
-        <v>2516.320392570622</v>
+        <v>2516.320392570621</v>
       </c>
       <c r="T23" t="n">
-        <v>2463.984075241667</v>
+        <v>2463.984075241665</v>
       </c>
       <c r="U23" t="n">
-        <v>2371.068697149248</v>
+        <v>2371.068697149246</v>
       </c>
       <c r="V23" t="n">
-        <v>2200.750726582005</v>
+        <v>2200.750726582004</v>
       </c>
       <c r="W23" t="n">
-        <v>2008.72698808822</v>
+        <v>2008.726988088218</v>
       </c>
       <c r="X23" t="n">
-        <v>1796.006146603468</v>
+        <v>1796.006146603467</v>
       </c>
       <c r="Y23" t="n">
-        <v>1566.611731403985</v>
+        <v>1566.611731403983</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>865.2016252787585</v>
+        <v>865.2016252787575</v>
       </c>
       <c r="C24" t="n">
-        <v>690.7485959976315</v>
+        <v>690.7485959976306</v>
       </c>
       <c r="D24" t="n">
-        <v>541.8141863363802</v>
+        <v>541.8141863363793</v>
       </c>
       <c r="E24" t="n">
-        <v>382.5767313309247</v>
+        <v>382.5767313309238</v>
       </c>
       <c r="F24" t="n">
-        <v>236.0421733578097</v>
+        <v>325.1174193051717</v>
       </c>
       <c r="G24" t="n">
-        <v>98.81083781818265</v>
+        <v>187.8860837655447</v>
       </c>
       <c r="H24" t="n">
-        <v>50.32640785141244</v>
+        <v>88.9988635714659</v>
       </c>
       <c r="I24" t="n">
-        <v>50.32640785141244</v>
+        <v>50.32640785141243</v>
       </c>
       <c r="J24" t="n">
-        <v>63.60685604256959</v>
+        <v>188.4369810295743</v>
       </c>
       <c r="K24" t="n">
-        <v>164.4600820048477</v>
+        <v>289.2902069918524</v>
       </c>
       <c r="L24" t="n">
-        <v>346.3922315274023</v>
+        <v>838.3542983648316</v>
       </c>
       <c r="M24" t="n">
-        <v>578.055337007375</v>
+        <v>1461.14359552606</v>
       </c>
       <c r="N24" t="n">
-        <v>1197.623580281462</v>
+        <v>1713.346778988751</v>
       </c>
       <c r="O24" t="n">
-        <v>1796.044122143824</v>
+        <v>2004.020637002313</v>
       </c>
       <c r="P24" t="n">
-        <v>2259.32629699787</v>
+        <v>2467.302811856359</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.320392570622</v>
+        <v>2516.320392570621</v>
       </c>
       <c r="R24" t="n">
-        <v>2508.250769744274</v>
+        <v>2508.250769744273</v>
       </c>
       <c r="S24" t="n">
-        <v>2362.685792003289</v>
+        <v>2362.685792003288</v>
       </c>
       <c r="T24" t="n">
-        <v>2166.543193843016</v>
+        <v>2166.543193843015</v>
       </c>
       <c r="U24" t="n">
         <v>1938.418226229257</v>
       </c>
       <c r="V24" t="n">
-        <v>1703.266117997515</v>
+        <v>1703.266117997514</v>
       </c>
       <c r="W24" t="n">
-        <v>1449.028761269313</v>
+        <v>1449.028761269312</v>
       </c>
       <c r="X24" t="n">
-        <v>1241.17726106378</v>
+        <v>1241.177261063779</v>
       </c>
       <c r="Y24" t="n">
-        <v>1033.416962298827</v>
+        <v>1033.416962298826</v>
       </c>
     </row>
     <row r="25">
@@ -6121,43 +6121,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>216.3201326344533</v>
+        <v>441.463398489507</v>
       </c>
       <c r="C25" t="n">
-        <v>208.1288664828747</v>
+        <v>272.5272155616001</v>
       </c>
       <c r="D25" t="n">
-        <v>58.01222707053903</v>
+        <v>122.4105761492644</v>
       </c>
       <c r="E25" t="n">
-        <v>58.01222707053903</v>
+        <v>122.4105761492644</v>
       </c>
       <c r="F25" t="n">
-        <v>58.01222707053903</v>
+        <v>58.01222707053896</v>
       </c>
       <c r="G25" t="n">
-        <v>50.32640785141244</v>
+        <v>50.32640785141243</v>
       </c>
       <c r="H25" t="n">
-        <v>50.32640785141244</v>
+        <v>50.32640785141243</v>
       </c>
       <c r="I25" t="n">
-        <v>50.32640785141244</v>
+        <v>50.32640785141243</v>
       </c>
       <c r="J25" t="n">
-        <v>50.32640785141244</v>
+        <v>50.32640785141243</v>
       </c>
       <c r="K25" t="n">
         <v>171.4278350984646</v>
       </c>
       <c r="L25" t="n">
-        <v>381.922402815534</v>
+        <v>381.9224028155341</v>
       </c>
       <c r="M25" t="n">
-        <v>614.2485340515028</v>
+        <v>614.2485340515029</v>
       </c>
       <c r="N25" t="n">
-        <v>846.4850855829694</v>
+        <v>846.4850855829695</v>
       </c>
       <c r="O25" t="n">
         <v>1044.976833982885</v>
@@ -6169,28 +6169,28 @@
         <v>1209.171720582629</v>
       </c>
       <c r="R25" t="n">
-        <v>1086.61226075034</v>
+        <v>1209.171720582629</v>
       </c>
       <c r="S25" t="n">
-        <v>1042.985992511464</v>
+        <v>1004.800535567426</v>
       </c>
       <c r="T25" t="n">
-        <v>978.8541783665758</v>
+        <v>940.6687214225373</v>
       </c>
       <c r="U25" t="n">
-        <v>850.4565246665381</v>
+        <v>812.2710677224998</v>
       </c>
       <c r="V25" t="n">
-        <v>653.9331472142162</v>
+        <v>718.3314962929412</v>
       </c>
       <c r="W25" t="n">
-        <v>364.5159771772555</v>
+        <v>589.659243032309</v>
       </c>
       <c r="X25" t="n">
-        <v>297.2713430555665</v>
+        <v>522.41460891062</v>
       </c>
       <c r="Y25" t="n">
-        <v>237.2236806883647</v>
+        <v>462.3669465434183</v>
       </c>
     </row>
     <row r="26">
@@ -6206,46 +6206,46 @@
         <v>1581.76820985265</v>
       </c>
       <c r="D26" t="n">
-        <v>1303.874969634063</v>
+        <v>1303.874969634064</v>
       </c>
       <c r="E26" t="n">
-        <v>998.459175423983</v>
+        <v>998.4591754239834</v>
       </c>
       <c r="F26" t="n">
-        <v>667.8457290225397</v>
+        <v>667.8457290225401</v>
       </c>
       <c r="G26" t="n">
-        <v>331.5230104734032</v>
+        <v>331.5230104734037</v>
       </c>
       <c r="H26" t="n">
-        <v>97.69311781113444</v>
+        <v>97.69311781113443</v>
       </c>
       <c r="I26" t="n">
         <v>73.5085031642563</v>
       </c>
       <c r="J26" t="n">
-        <v>127.4014923383445</v>
+        <v>294.8071413586977</v>
       </c>
       <c r="K26" t="n">
-        <v>259.0945571735341</v>
+        <v>747.2212385058449</v>
       </c>
       <c r="L26" t="n">
-        <v>872.6308774178079</v>
+        <v>1360.757558750119</v>
       </c>
       <c r="M26" t="n">
-        <v>1571.914794955431</v>
+        <v>2060.041476287742</v>
       </c>
       <c r="N26" t="n">
-        <v>2267.881859811827</v>
+        <v>2502.24489042136</v>
       </c>
       <c r="O26" t="n">
-        <v>2879.876186022614</v>
+        <v>3114.239216632146</v>
       </c>
       <c r="P26" t="n">
-        <v>3364.524801546837</v>
+        <v>3598.887832156369</v>
       </c>
       <c r="Q26" t="n">
-        <v>3651.253968356587</v>
+        <v>3675.425158212814</v>
       </c>
       <c r="R26" t="n">
         <v>3675.425158212814</v>
@@ -6257,16 +6257,16 @@
         <v>3475.820285859358</v>
       </c>
       <c r="U26" t="n">
-        <v>3302.532449378774</v>
+        <v>3302.532449378775</v>
       </c>
       <c r="V26" t="n">
         <v>3051.842020423368</v>
       </c>
       <c r="W26" t="n">
-        <v>2779.445823541418</v>
+        <v>2779.445823541419</v>
       </c>
       <c r="X26" t="n">
-        <v>2486.352523668502</v>
+        <v>2486.352523668503</v>
       </c>
       <c r="Y26" t="n">
         <v>2176.585650080855</v>
@@ -6303,22 +6303,22 @@
         <v>73.5085031642563</v>
       </c>
       <c r="J27" t="n">
-        <v>86.78895135541345</v>
+        <v>211.6190763424182</v>
       </c>
       <c r="K27" t="n">
-        <v>187.6421773176915</v>
+        <v>574.2928869471491</v>
       </c>
       <c r="L27" t="n">
-        <v>369.5743268402461</v>
+        <v>756.2250364697037</v>
       </c>
       <c r="M27" t="n">
-        <v>601.2374323202189</v>
+        <v>1288.33062451636</v>
       </c>
       <c r="N27" t="n">
-        <v>1309.880921541668</v>
+        <v>2015.082758579169</v>
       </c>
       <c r="O27" t="n">
-        <v>1908.30146340403</v>
+        <v>2223.579604357568</v>
       </c>
       <c r="P27" t="n">
         <v>2371.583638258076</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>565.0923641956792</v>
+        <v>565.0923641956794</v>
       </c>
       <c r="C28" t="n">
-        <v>476.5286396559365</v>
+        <v>476.5286396559367</v>
       </c>
       <c r="D28" t="n">
-        <v>406.7844586317649</v>
+        <v>406.7844586317651</v>
       </c>
       <c r="E28" t="n">
-        <v>339.243823437536</v>
+        <v>339.2438234375362</v>
       </c>
       <c r="F28" t="n">
-        <v>272.7263343277898</v>
+        <v>272.72633432779</v>
       </c>
       <c r="G28" t="n">
         <v>184.6680567204993</v>
@@ -6385,16 +6385,16 @@
         <v>146.9658000670179</v>
       </c>
       <c r="K28" t="n">
-        <v>346.8402737803098</v>
+        <v>346.8402737803099</v>
       </c>
       <c r="L28" t="n">
-        <v>636.1078879636189</v>
+        <v>636.1078879636191</v>
       </c>
       <c r="M28" t="n">
-        <v>947.2070656658273</v>
+        <v>947.2070656658277</v>
       </c>
       <c r="N28" t="n">
-        <v>1258.216663663533</v>
+        <v>1258.216663663534</v>
       </c>
       <c r="O28" t="n">
         <v>1535.481458529689</v>
@@ -6403,7 +6403,7 @@
         <v>1760.577804032321</v>
       </c>
       <c r="Q28" t="n">
-        <v>1857.222438061912</v>
+        <v>1857.222438061913</v>
       </c>
       <c r="R28" t="n">
         <v>1815.035436617787</v>
@@ -6421,13 +6421,13 @@
         <v>1163.45029555177</v>
       </c>
       <c r="W28" t="n">
-        <v>954.4055839029738</v>
+        <v>954.4055839029739</v>
       </c>
       <c r="X28" t="n">
-        <v>806.7884913931207</v>
+        <v>806.7884913931208</v>
       </c>
       <c r="Y28" t="n">
-        <v>666.3683706377548</v>
+        <v>666.3683706377549</v>
       </c>
     </row>
     <row r="29">
@@ -6455,31 +6455,31 @@
         <v>331.5230104734037</v>
       </c>
       <c r="H29" t="n">
-        <v>97.69311781113444</v>
+        <v>97.69311781113439</v>
       </c>
       <c r="I29" t="n">
-        <v>73.5085031642563</v>
+        <v>73.50850316425628</v>
       </c>
       <c r="J29" t="n">
-        <v>127.4014923383445</v>
+        <v>127.4014923383446</v>
       </c>
       <c r="K29" t="n">
-        <v>579.8155894854916</v>
+        <v>579.8155894854918</v>
       </c>
       <c r="L29" t="n">
-        <v>872.6308774178079</v>
+        <v>1193.351909729766</v>
       </c>
       <c r="M29" t="n">
-        <v>1571.914794955431</v>
+        <v>1892.635827267389</v>
       </c>
       <c r="N29" t="n">
-        <v>2267.881859811827</v>
+        <v>2588.602892123785</v>
       </c>
       <c r="O29" t="n">
-        <v>2879.876186022614</v>
+        <v>3200.597218334572</v>
       </c>
       <c r="P29" t="n">
-        <v>3364.524801546837</v>
+        <v>3574.716642300142</v>
       </c>
       <c r="Q29" t="n">
         <v>3651.253968356587</v>
@@ -6491,19 +6491,19 @@
         <v>3608.529061576477</v>
       </c>
       <c r="T29" t="n">
-        <v>3475.820285859358</v>
+        <v>3475.820285859357</v>
       </c>
       <c r="U29" t="n">
-        <v>3302.532449378775</v>
+        <v>3302.532449378774</v>
       </c>
       <c r="V29" t="n">
         <v>3051.842020423368</v>
       </c>
       <c r="W29" t="n">
-        <v>2779.445823541419</v>
+        <v>2779.445823541418</v>
       </c>
       <c r="X29" t="n">
-        <v>2486.352523668503</v>
+        <v>2486.352523668502</v>
       </c>
       <c r="Y29" t="n">
         <v>2176.585650080855</v>
@@ -6531,28 +6531,28 @@
         <v>348.2995146180156</v>
       </c>
       <c r="G30" t="n">
-        <v>211.0681790783886</v>
+        <v>211.0681790783885</v>
       </c>
       <c r="H30" t="n">
-        <v>112.1809588843098</v>
+        <v>112.1809588843097</v>
       </c>
       <c r="I30" t="n">
-        <v>73.5085031642563</v>
+        <v>73.50850316425628</v>
       </c>
       <c r="J30" t="n">
-        <v>86.78895135541345</v>
+        <v>211.6190763424182</v>
       </c>
       <c r="K30" t="n">
-        <v>187.6421773176915</v>
+        <v>572.9581660479123</v>
       </c>
       <c r="L30" t="n">
-        <v>369.5743268402461</v>
+        <v>754.890315570467</v>
       </c>
       <c r="M30" t="n">
-        <v>601.2374323202189</v>
+        <v>1447.60143416294</v>
       </c>
       <c r="N30" t="n">
-        <v>1309.880921541668</v>
+        <v>1699.80461762563</v>
       </c>
       <c r="O30" t="n">
         <v>1908.30146340403</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>565.0923641956792</v>
+        <v>565.0923641956797</v>
       </c>
       <c r="C31" t="n">
-        <v>476.5286396559365</v>
+        <v>476.528639655937</v>
       </c>
       <c r="D31" t="n">
-        <v>406.7844586317649</v>
+        <v>406.7844586317655</v>
       </c>
       <c r="E31" t="n">
-        <v>339.243823437536</v>
+        <v>339.2438234375365</v>
       </c>
       <c r="F31" t="n">
-        <v>272.7263343277898</v>
+        <v>272.7263343277904</v>
       </c>
       <c r="G31" t="n">
-        <v>184.668056720499</v>
+        <v>184.6680567204996</v>
       </c>
       <c r="H31" t="n">
-        <v>112.3516411989751</v>
+        <v>112.3516411989754</v>
       </c>
       <c r="I31" t="n">
-        <v>73.5085031642563</v>
+        <v>73.50850316425628</v>
       </c>
       <c r="J31" t="n">
         <v>146.9658000670179</v>
       </c>
       <c r="K31" t="n">
-        <v>346.8402737803098</v>
+        <v>346.8402737803099</v>
       </c>
       <c r="L31" t="n">
-        <v>636.1078879636189</v>
+        <v>636.1078879636191</v>
       </c>
       <c r="M31" t="n">
-        <v>947.2070656658274</v>
+        <v>947.2070656658275</v>
       </c>
       <c r="N31" t="n">
         <v>1258.216663663534</v>
@@ -6640,7 +6640,7 @@
         <v>1760.577804032321</v>
       </c>
       <c r="Q31" t="n">
-        <v>1857.222438061912</v>
+        <v>1857.222438061913</v>
       </c>
       <c r="R31" t="n">
         <v>1815.035436617787</v>
@@ -6652,19 +6652,19 @@
         <v>1546.532437457695</v>
       </c>
       <c r="U31" t="n">
-        <v>1337.762325369493</v>
+        <v>1337.762325369494</v>
       </c>
       <c r="V31" t="n">
-        <v>1163.45029555177</v>
+        <v>1163.450295551771</v>
       </c>
       <c r="W31" t="n">
-        <v>954.4055839029738</v>
+        <v>954.4055839029743</v>
       </c>
       <c r="X31" t="n">
-        <v>806.7884913931207</v>
+        <v>806.7884913931211</v>
       </c>
       <c r="Y31" t="n">
-        <v>666.3683706377548</v>
+        <v>666.3683706377552</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6674,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1870.358268404897</v>
+        <v>1870.358268404898</v>
       </c>
       <c r="C32" t="n">
         <v>1581.76820985265</v>
       </c>
       <c r="D32" t="n">
-        <v>1303.874969634063</v>
+        <v>1303.874969634064</v>
       </c>
       <c r="E32" t="n">
-        <v>998.4591754239832</v>
+        <v>998.4591754239838</v>
       </c>
       <c r="F32" t="n">
-        <v>667.8457290225399</v>
+        <v>667.8457290225404</v>
       </c>
       <c r="G32" t="n">
-        <v>331.5230104734035</v>
+        <v>331.5230104734039</v>
       </c>
       <c r="H32" t="n">
-        <v>97.69311781113446</v>
+        <v>97.6931178111345</v>
       </c>
       <c r="I32" t="n">
-        <v>73.5085031642563</v>
+        <v>73.50850316425631</v>
       </c>
       <c r="J32" t="n">
-        <v>127.5844184718401</v>
+        <v>127.5844184718407</v>
       </c>
       <c r="K32" t="n">
-        <v>259.0945571735341</v>
+        <v>259.0945571735348</v>
       </c>
       <c r="L32" t="n">
-        <v>872.6308774178079</v>
+        <v>872.6308774178087</v>
       </c>
       <c r="M32" t="n">
-        <v>1571.914794955431</v>
+        <v>1571.914794955432</v>
       </c>
       <c r="N32" t="n">
-        <v>2267.881859811827</v>
+        <v>2267.881859811828</v>
       </c>
       <c r="O32" t="n">
         <v>2879.876186022614</v>
@@ -6719,28 +6719,28 @@
         <v>3364.524801546837</v>
       </c>
       <c r="Q32" t="n">
-        <v>3651.253968356587</v>
+        <v>3651.253968356588</v>
       </c>
       <c r="R32" t="n">
-        <v>3675.425158212814</v>
+        <v>3675.425158212815</v>
       </c>
       <c r="S32" t="n">
-        <v>3608.529061576477</v>
+        <v>3608.529061576478</v>
       </c>
       <c r="T32" t="n">
         <v>3475.820285859358</v>
       </c>
       <c r="U32" t="n">
-        <v>3302.532449378774</v>
+        <v>3302.532449378776</v>
       </c>
       <c r="V32" t="n">
-        <v>3051.842020423368</v>
+        <v>3051.842020423369</v>
       </c>
       <c r="W32" t="n">
-        <v>2779.445823541418</v>
+        <v>2779.445823541419</v>
       </c>
       <c r="X32" t="n">
-        <v>2486.352523668502</v>
+        <v>2486.352523668503</v>
       </c>
       <c r="Y32" t="n">
         <v>2176.585650080855</v>
@@ -6774,28 +6774,28 @@
         <v>112.1809588843098</v>
       </c>
       <c r="I33" t="n">
-        <v>73.5085031642563</v>
+        <v>73.50850316425631</v>
       </c>
       <c r="J33" t="n">
-        <v>86.78895135541345</v>
+        <v>86.78895135541346</v>
       </c>
       <c r="K33" t="n">
-        <v>187.6421773176915</v>
+        <v>449.4627619601444</v>
       </c>
       <c r="L33" t="n">
-        <v>369.5743268402461</v>
+        <v>631.3949114826991</v>
       </c>
       <c r="M33" t="n">
-        <v>601.2374323202189</v>
+        <v>1324.106030075172</v>
       </c>
       <c r="N33" t="n">
-        <v>1309.880921541668</v>
+        <v>1833.135577353696</v>
       </c>
       <c r="O33" t="n">
-        <v>1908.30146340403</v>
+        <v>2431.556119216058</v>
       </c>
       <c r="P33" t="n">
-        <v>2371.583638258076</v>
+        <v>2579.560153116566</v>
       </c>
       <c r="Q33" t="n">
         <v>2628.577733830828</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>565.0923641956795</v>
+        <v>565.0923641956788</v>
       </c>
       <c r="C34" t="n">
-        <v>476.5286396559368</v>
+        <v>476.528639655936</v>
       </c>
       <c r="D34" t="n">
-        <v>406.7844586317652</v>
+        <v>406.7844586317644</v>
       </c>
       <c r="E34" t="n">
-        <v>339.2438234375363</v>
+        <v>339.2438234375354</v>
       </c>
       <c r="F34" t="n">
-        <v>272.72633432779</v>
+        <v>272.7263343277892</v>
       </c>
       <c r="G34" t="n">
-        <v>184.6680567204994</v>
+        <v>184.668056720499</v>
       </c>
       <c r="H34" t="n">
-        <v>112.3516411989755</v>
+        <v>112.351641198975</v>
       </c>
       <c r="I34" t="n">
-        <v>73.5085031642563</v>
+        <v>73.50850316425631</v>
       </c>
       <c r="J34" t="n">
         <v>146.9658000670179</v>
@@ -6883,25 +6883,25 @@
         <v>1815.035436617787</v>
       </c>
       <c r="S34" t="n">
-        <v>1691.036709990748</v>
+        <v>1691.036709990747</v>
       </c>
       <c r="T34" t="n">
-        <v>1546.532437457695</v>
+        <v>1546.532437457694</v>
       </c>
       <c r="U34" t="n">
         <v>1337.762325369493</v>
       </c>
       <c r="V34" t="n">
-        <v>1163.450295551771</v>
+        <v>1163.45029555177</v>
       </c>
       <c r="W34" t="n">
-        <v>954.4055839029741</v>
+        <v>954.4055839029734</v>
       </c>
       <c r="X34" t="n">
-        <v>806.7884913931209</v>
+        <v>806.7884913931202</v>
       </c>
       <c r="Y34" t="n">
-        <v>666.368370637755</v>
+        <v>666.3683706377543</v>
       </c>
     </row>
     <row r="35">
@@ -6917,46 +6917,46 @@
         <v>1203.496377992339</v>
       </c>
       <c r="D35" t="n">
-        <v>992.4992344100903</v>
+        <v>992.49923441009</v>
       </c>
       <c r="E35" t="n">
-        <v>753.9795368363473</v>
+        <v>753.9795368363471</v>
       </c>
       <c r="F35" t="n">
-        <v>490.262187071241</v>
+        <v>490.2621870712409</v>
       </c>
       <c r="G35" t="n">
         <v>220.8355651584416</v>
       </c>
       <c r="H35" t="n">
-        <v>53.90176913250941</v>
+        <v>53.9017691325094</v>
       </c>
       <c r="I35" t="n">
-        <v>53.90176913250941</v>
+        <v>53.9017691325094</v>
       </c>
       <c r="J35" t="n">
-        <v>107.7947583065977</v>
+        <v>275.2004073269508</v>
       </c>
       <c r="K35" t="n">
-        <v>239.3048970082916</v>
+        <v>727.6145044740979</v>
       </c>
       <c r="L35" t="n">
-        <v>439.3566148476195</v>
+        <v>927.6662223134259</v>
       </c>
       <c r="M35" t="n">
-        <v>693.6221342273382</v>
+        <v>1367.303459481945</v>
       </c>
       <c r="N35" t="n">
-        <v>1287.545158224483</v>
+        <v>1630.297069170477</v>
       </c>
       <c r="O35" t="n">
-        <v>1899.539484435269</v>
+        <v>2242.291395381264</v>
       </c>
       <c r="P35" t="n">
-        <v>2384.188099959492</v>
+        <v>2408.359289815719</v>
       </c>
       <c r="Q35" t="n">
-        <v>2670.917266769243</v>
+        <v>2695.08845662547</v>
       </c>
       <c r="R35" t="n">
         <v>2695.08845662547</v>
@@ -6965,10 +6965,10 @@
         <v>2695.08845662547</v>
       </c>
       <c r="T35" t="n">
-        <v>2629.275777544688</v>
+        <v>2629.275777544687</v>
       </c>
       <c r="U35" t="n">
-        <v>2522.884037700442</v>
+        <v>2522.884037700441</v>
       </c>
       <c r="V35" t="n">
         <v>2339.089705381372</v>
@@ -7008,31 +7008,31 @@
         <v>191.4614450466417</v>
       </c>
       <c r="H36" t="n">
-        <v>92.57422485256289</v>
+        <v>92.57422485256288</v>
       </c>
       <c r="I36" t="n">
-        <v>53.90176913250941</v>
+        <v>53.9017691325094</v>
       </c>
       <c r="J36" t="n">
-        <v>67.18221732366655</v>
+        <v>192.0123423106713</v>
       </c>
       <c r="K36" t="n">
-        <v>168.0354432859446</v>
+        <v>345.2271754714761</v>
       </c>
       <c r="L36" t="n">
-        <v>349.9675928084992</v>
+        <v>894.2912668444553</v>
       </c>
       <c r="M36" t="n">
-        <v>623.2397944951173</v>
+        <v>1561.325659859259</v>
       </c>
       <c r="N36" t="n">
-        <v>1290.274187509921</v>
+        <v>1813.52884332195</v>
       </c>
       <c r="O36" t="n">
-        <v>1888.694729372283</v>
+        <v>2411.949385184311</v>
       </c>
       <c r="P36" t="n">
-        <v>2351.976904226328</v>
+        <v>2559.953419084819</v>
       </c>
       <c r="Q36" t="n">
         <v>2608.970999799081</v>
@@ -7072,28 +7072,28 @@
         <v>105.6445198377816</v>
       </c>
       <c r="C37" t="n">
-        <v>83.976891934376</v>
+        <v>83.97689193437598</v>
       </c>
       <c r="D37" t="n">
-        <v>81.12880754654158</v>
+        <v>81.12880754654157</v>
       </c>
       <c r="E37" t="n">
-        <v>80.48426898864977</v>
+        <v>80.48426898864976</v>
       </c>
       <c r="F37" t="n">
-        <v>80.48426898864977</v>
+        <v>80.48426898864976</v>
       </c>
       <c r="G37" t="n">
-        <v>59.32208801769616</v>
+        <v>59.32208801769615</v>
       </c>
       <c r="H37" t="n">
-        <v>53.90176913250941</v>
+        <v>53.9017691325094</v>
       </c>
       <c r="I37" t="n">
-        <v>53.90176913250941</v>
+        <v>53.9017691325094</v>
       </c>
       <c r="J37" t="n">
-        <v>53.90176913250941</v>
+        <v>53.9017691325094</v>
       </c>
       <c r="K37" t="n">
         <v>175.0031963795616</v>
@@ -7102,10 +7102,10 @@
         <v>385.497764096631</v>
       </c>
       <c r="M37" t="n">
-        <v>617.8238953325998</v>
+        <v>617.8238953325999</v>
       </c>
       <c r="N37" t="n">
-        <v>850.0604468640664</v>
+        <v>850.0604468640665</v>
       </c>
       <c r="O37" t="n">
         <v>1048.552195263982</v>
@@ -7120,25 +7120,25 @@
         <v>1212.747081863726</v>
       </c>
       <c r="S37" t="n">
-        <v>1155.644451873024</v>
+        <v>1057.853299227492</v>
       </c>
       <c r="T37" t="n">
-        <v>930.7677209518072</v>
+        <v>980.2451233307769</v>
       </c>
       <c r="U37" t="n">
-        <v>788.8937054999426</v>
+        <v>838.3711078789123</v>
       </c>
       <c r="V37" t="n">
-        <v>681.4777723185571</v>
+        <v>583.6866196730255</v>
       </c>
       <c r="W37" t="n">
-        <v>539.3291573060977</v>
+        <v>294.2694496360649</v>
       </c>
       <c r="X37" t="n">
-        <v>458.6081614325817</v>
+        <v>213.5484537625488</v>
       </c>
       <c r="Y37" t="n">
-        <v>237.8155822890516</v>
+        <v>140.02442964352</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1425.190339908249</v>
+        <v>1425.19033990825</v>
       </c>
       <c r="C38" t="n">
-        <v>1203.496377992339</v>
+        <v>1203.49637799234</v>
       </c>
       <c r="D38" t="n">
-        <v>992.4992344100898</v>
+        <v>992.4992344100909</v>
       </c>
       <c r="E38" t="n">
-        <v>753.9795368363468</v>
+        <v>753.979536836348</v>
       </c>
       <c r="F38" t="n">
-        <v>490.2621870712405</v>
+        <v>490.2621870712417</v>
       </c>
       <c r="G38" t="n">
         <v>220.8355651584416</v>
       </c>
       <c r="H38" t="n">
-        <v>53.90176913250938</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="I38" t="n">
-        <v>53.90176913250938</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="J38" t="n">
-        <v>107.7947583065976</v>
+        <v>260.3183295896579</v>
       </c>
       <c r="K38" t="n">
-        <v>239.3048970082916</v>
+        <v>391.8284682913519</v>
       </c>
       <c r="L38" t="n">
-        <v>439.3566148476195</v>
+        <v>591.8801861306799</v>
       </c>
       <c r="M38" t="n">
-        <v>693.6221342273382</v>
+        <v>1258.914579145484</v>
       </c>
       <c r="N38" t="n">
-        <v>1287.545158224482</v>
+        <v>1521.908188834016</v>
       </c>
       <c r="O38" t="n">
-        <v>1899.539484435268</v>
+        <v>2133.902515044802</v>
       </c>
       <c r="P38" t="n">
-        <v>2384.188099959491</v>
+        <v>2618.551130569026</v>
       </c>
       <c r="Q38" t="n">
-        <v>2670.917266769242</v>
+        <v>2695.088456625471</v>
       </c>
       <c r="R38" t="n">
-        <v>2695.088456625469</v>
+        <v>2695.088456625471</v>
       </c>
       <c r="S38" t="n">
-        <v>2695.088456625469</v>
+        <v>2695.088456625471</v>
       </c>
       <c r="T38" t="n">
-        <v>2629.275777544687</v>
+        <v>2629.275777544688</v>
       </c>
       <c r="U38" t="n">
-        <v>2522.884037700441</v>
+        <v>2522.884037700442</v>
       </c>
       <c r="V38" t="n">
-        <v>2339.089705381371</v>
+        <v>2339.089705381373</v>
       </c>
       <c r="W38" t="n">
-        <v>2133.589605135759</v>
+        <v>2133.58960513576</v>
       </c>
       <c r="X38" t="n">
-        <v>1907.39240189918</v>
+        <v>1907.392401899181</v>
       </c>
       <c r="Y38" t="n">
-        <v>1664.52162494787</v>
+        <v>1664.521624947871</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7245,31 @@
         <v>191.4614450466417</v>
       </c>
       <c r="H39" t="n">
-        <v>92.57422485256286</v>
+        <v>92.57422485256289</v>
       </c>
       <c r="I39" t="n">
-        <v>53.90176913250938</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="J39" t="n">
-        <v>67.18221732366652</v>
+        <v>67.18221732366656</v>
       </c>
       <c r="K39" t="n">
-        <v>168.0354432859446</v>
+        <v>429.8560279283975</v>
       </c>
       <c r="L39" t="n">
-        <v>349.9675928084991</v>
+        <v>894.2912668444551</v>
       </c>
       <c r="M39" t="n">
-        <v>623.2397944951176</v>
+        <v>1561.325659859259</v>
       </c>
       <c r="N39" t="n">
-        <v>1290.274187509921</v>
+        <v>1813.52884332195</v>
       </c>
       <c r="O39" t="n">
-        <v>1888.694729372283</v>
+        <v>2411.949385184311</v>
       </c>
       <c r="P39" t="n">
-        <v>2351.976904226328</v>
+        <v>2559.953419084819</v>
       </c>
       <c r="Q39" t="n">
         <v>2608.970999799081</v>
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>105.6445198377816</v>
+        <v>252.9130748622829</v>
       </c>
       <c r="C40" t="n">
-        <v>83.97689193437597</v>
+        <v>231.2454469588773</v>
       </c>
       <c r="D40" t="n">
-        <v>81.12880754654155</v>
+        <v>81.12880754654158</v>
       </c>
       <c r="E40" t="n">
-        <v>80.48426898864975</v>
+        <v>80.48426898864977</v>
       </c>
       <c r="F40" t="n">
-        <v>80.48426898864975</v>
+        <v>80.48426898864977</v>
       </c>
       <c r="G40" t="n">
-        <v>59.32208801769613</v>
+        <v>59.32208801769617</v>
       </c>
       <c r="H40" t="n">
-        <v>53.90176913250938</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="I40" t="n">
-        <v>53.90176913250938</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="J40" t="n">
-        <v>53.90176913250938</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="K40" t="n">
         <v>175.0031963795616</v>
       </c>
       <c r="L40" t="n">
-        <v>385.497764096631</v>
+        <v>385.4977640966311</v>
       </c>
       <c r="M40" t="n">
-        <v>617.8238953325998</v>
+        <v>617.8238953325999</v>
       </c>
       <c r="N40" t="n">
-        <v>850.0604468640664</v>
+        <v>850.0604468640665</v>
       </c>
       <c r="O40" t="n">
         <v>1048.552195263982</v>
@@ -7357,25 +7357,25 @@
         <v>1212.747081863726</v>
       </c>
       <c r="S40" t="n">
-        <v>1008.375896848523</v>
+        <v>1155.644451873024</v>
       </c>
       <c r="T40" t="n">
-        <v>832.9765683062756</v>
+        <v>1078.036275976309</v>
       </c>
       <c r="U40" t="n">
-        <v>691.102552854411</v>
+        <v>936.162260524444</v>
       </c>
       <c r="V40" t="n">
-        <v>436.4180646485241</v>
+        <v>730.9551746975269</v>
       </c>
       <c r="W40" t="n">
-        <v>294.2694496360648</v>
+        <v>441.5380046605662</v>
       </c>
       <c r="X40" t="n">
-        <v>213.5484537625488</v>
+        <v>360.8170087870502</v>
       </c>
       <c r="Y40" t="n">
-        <v>140.02442964352</v>
+        <v>287.2929846680213</v>
       </c>
     </row>
     <row r="41">
@@ -7388,40 +7388,40 @@
         <v>1425.19033990825</v>
       </c>
       <c r="C41" t="n">
-        <v>1203.496377992339</v>
+        <v>1203.49637799234</v>
       </c>
       <c r="D41" t="n">
-        <v>992.4992344100903</v>
+        <v>992.4992344100905</v>
       </c>
       <c r="E41" t="n">
-        <v>753.9795368363473</v>
+        <v>753.9795368363475</v>
       </c>
       <c r="F41" t="n">
-        <v>490.2621870712411</v>
+        <v>490.2621870712417</v>
       </c>
       <c r="G41" t="n">
         <v>220.8355651584416</v>
       </c>
       <c r="H41" t="n">
-        <v>53.9017691325094</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="I41" t="n">
-        <v>53.9017691325094</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="J41" t="n">
-        <v>107.7947583065976</v>
+        <v>107.7947583065977</v>
       </c>
       <c r="K41" t="n">
-        <v>239.3048970082916</v>
+        <v>239.3048970082918</v>
       </c>
       <c r="L41" t="n">
-        <v>439.3566148476195</v>
+        <v>439.3566148476198</v>
       </c>
       <c r="M41" t="n">
-        <v>693.6221342273382</v>
+        <v>1024.551548535951</v>
       </c>
       <c r="N41" t="n">
-        <v>1360.656527242142</v>
+        <v>1287.545158224483</v>
       </c>
       <c r="O41" t="n">
         <v>1899.539484435269</v>
@@ -7445,7 +7445,7 @@
         <v>2522.884037700442</v>
       </c>
       <c r="V41" t="n">
-        <v>2339.089705381372</v>
+        <v>2339.089705381373</v>
       </c>
       <c r="W41" t="n">
         <v>2133.589605135759</v>
@@ -7454,7 +7454,7 @@
         <v>1907.392401899181</v>
       </c>
       <c r="Y41" t="n">
-        <v>1664.52162494787</v>
+        <v>1664.521624947871</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>92.57422485256288</v>
       </c>
       <c r="I42" t="n">
-        <v>53.9017691325094</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="J42" t="n">
         <v>67.18221732366655</v>
       </c>
       <c r="K42" t="n">
-        <v>168.0354432859446</v>
+        <v>429.8560279283975</v>
       </c>
       <c r="L42" t="n">
-        <v>349.9675928084992</v>
+        <v>611.788177450952</v>
       </c>
       <c r="M42" t="n">
-        <v>623.2397944951174</v>
+        <v>1246.047518905721</v>
       </c>
       <c r="N42" t="n">
-        <v>1290.274187509921</v>
+        <v>1498.250702368412</v>
       </c>
       <c r="O42" t="n">
-        <v>1888.694729372283</v>
+        <v>2096.671244230773</v>
       </c>
       <c r="P42" t="n">
-        <v>2351.976904226328</v>
+        <v>2559.953419084819</v>
       </c>
       <c r="Q42" t="n">
         <v>2608.970999799081</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>105.6445198377816</v>
+        <v>252.534467335692</v>
       </c>
       <c r="C43" t="n">
-        <v>83.97689193437598</v>
+        <v>230.8668394322864</v>
       </c>
       <c r="D43" t="n">
-        <v>81.12880754654157</v>
+        <v>228.018755044452</v>
       </c>
       <c r="E43" t="n">
-        <v>80.48426898864976</v>
+        <v>227.3742164865601</v>
       </c>
       <c r="F43" t="n">
-        <v>80.48426898864976</v>
+        <v>80.48426898864977</v>
       </c>
       <c r="G43" t="n">
-        <v>59.32208801769615</v>
+        <v>59.32208801769616</v>
       </c>
       <c r="H43" t="n">
-        <v>53.9017691325094</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="I43" t="n">
-        <v>53.9017691325094</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="J43" t="n">
-        <v>53.9017691325094</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="K43" t="n">
         <v>175.0031963795616</v>
@@ -7576,10 +7576,10 @@
         <v>385.497764096631</v>
       </c>
       <c r="M43" t="n">
-        <v>617.8238953325998</v>
+        <v>617.8238953325999</v>
       </c>
       <c r="N43" t="n">
-        <v>850.0604468640664</v>
+        <v>850.0604468640665</v>
       </c>
       <c r="O43" t="n">
         <v>1048.552195263982</v>
@@ -7594,25 +7594,25 @@
         <v>1212.747081863726</v>
       </c>
       <c r="S43" t="n">
-        <v>1008.375896848523</v>
+        <v>1155.644451873024</v>
       </c>
       <c r="T43" t="n">
-        <v>930.7677209518072</v>
+        <v>1078.036275976309</v>
       </c>
       <c r="U43" t="n">
-        <v>788.8937054999426</v>
+        <v>936.162260524444</v>
       </c>
       <c r="V43" t="n">
-        <v>534.2092172940557</v>
+        <v>681.4777723185572</v>
       </c>
       <c r="W43" t="n">
-        <v>392.0606022815964</v>
+        <v>441.1593971339753</v>
       </c>
       <c r="X43" t="n">
-        <v>311.3396064080804</v>
+        <v>360.4384012604592</v>
       </c>
       <c r="Y43" t="n">
-        <v>140.02442964352</v>
+        <v>286.9143771414304</v>
       </c>
     </row>
     <row r="44">
@@ -7625,46 +7625,46 @@
         <v>1425.19033990825</v>
       </c>
       <c r="C44" t="n">
-        <v>1203.49637799234</v>
+        <v>1203.496377992339</v>
       </c>
       <c r="D44" t="n">
-        <v>992.4992344100905</v>
+        <v>992.4992344100903</v>
       </c>
       <c r="E44" t="n">
-        <v>753.9795368363475</v>
+        <v>753.9795368363473</v>
       </c>
       <c r="F44" t="n">
-        <v>490.2621870712412</v>
+        <v>490.262187071241</v>
       </c>
       <c r="G44" t="n">
-        <v>220.8355651584416</v>
+        <v>220.8355651584417</v>
       </c>
       <c r="H44" t="n">
-        <v>53.9017691325094</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="I44" t="n">
-        <v>53.9017691325094</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="J44" t="n">
-        <v>107.7947583065976</v>
+        <v>107.7947583065978</v>
       </c>
       <c r="K44" t="n">
-        <v>239.3048970082916</v>
+        <v>239.304897008292</v>
       </c>
       <c r="L44" t="n">
-        <v>439.3566148476195</v>
+        <v>439.3566148476203</v>
       </c>
       <c r="M44" t="n">
-        <v>693.6221342273382</v>
+        <v>693.6221342273393</v>
       </c>
       <c r="N44" t="n">
-        <v>1287.545158224483</v>
+        <v>1360.656527242143</v>
       </c>
       <c r="O44" t="n">
-        <v>1899.539484435269</v>
+        <v>1972.65085345293</v>
       </c>
       <c r="P44" t="n">
-        <v>2384.188099959492</v>
+        <v>2457.299468977153</v>
       </c>
       <c r="Q44" t="n">
         <v>2670.917266769243</v>
@@ -7716,34 +7716,34 @@
         <v>328.6927805862687</v>
       </c>
       <c r="G45" t="n">
-        <v>191.4614450466417</v>
+        <v>191.4614450466416</v>
       </c>
       <c r="H45" t="n">
-        <v>92.57422485256288</v>
+        <v>92.57422485256285</v>
       </c>
       <c r="I45" t="n">
-        <v>53.9017691325094</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="J45" t="n">
-        <v>67.18221732366655</v>
+        <v>192.0123423106714</v>
       </c>
       <c r="K45" t="n">
-        <v>168.0354432859446</v>
+        <v>554.6861529154024</v>
       </c>
       <c r="L45" t="n">
-        <v>349.9675928084992</v>
+        <v>736.6183024379573</v>
       </c>
       <c r="M45" t="n">
-        <v>623.2397944951174</v>
+        <v>1403.652695452761</v>
       </c>
       <c r="N45" t="n">
-        <v>1290.274187509921</v>
+        <v>1655.855878915452</v>
       </c>
       <c r="O45" t="n">
-        <v>1888.694729372283</v>
+        <v>2254.276420777814</v>
       </c>
       <c r="P45" t="n">
-        <v>2351.976904226328</v>
+        <v>2402.280454678321</v>
       </c>
       <c r="Q45" t="n">
         <v>2608.970999799081</v>
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>105.6445198377816</v>
+        <v>252.5344673356921</v>
       </c>
       <c r="C46" t="n">
-        <v>83.97689193437598</v>
+        <v>230.8668394322865</v>
       </c>
       <c r="D46" t="n">
-        <v>81.12880754654157</v>
+        <v>228.018755044452</v>
       </c>
       <c r="E46" t="n">
-        <v>80.48426898864976</v>
+        <v>227.3742164865602</v>
       </c>
       <c r="F46" t="n">
-        <v>80.48426898864976</v>
+        <v>80.48426898864982</v>
       </c>
       <c r="G46" t="n">
-        <v>59.32208801769615</v>
+        <v>59.32208801769618</v>
       </c>
       <c r="H46" t="n">
-        <v>53.9017691325094</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="I46" t="n">
-        <v>53.9017691325094</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="J46" t="n">
-        <v>53.9017691325094</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="K46" t="n">
-        <v>175.0031963795616</v>
+        <v>175.0031963795617</v>
       </c>
       <c r="L46" t="n">
-        <v>385.497764096631</v>
+        <v>385.4977640966312</v>
       </c>
       <c r="M46" t="n">
-        <v>617.8238953325998</v>
+        <v>617.8238953326002</v>
       </c>
       <c r="N46" t="n">
-        <v>850.0604468640664</v>
+        <v>850.0604468640669</v>
       </c>
       <c r="O46" t="n">
         <v>1048.552195263982</v>
@@ -7825,31 +7825,31 @@
         <v>1194.875494300375</v>
       </c>
       <c r="Q46" t="n">
-        <v>1212.747081863726</v>
+        <v>1212.747081863727</v>
       </c>
       <c r="R46" t="n">
-        <v>1090.187622031437</v>
+        <v>1212.747081863727</v>
       </c>
       <c r="S46" t="n">
-        <v>1033.084992040734</v>
+        <v>1155.644451873025</v>
       </c>
       <c r="T46" t="n">
-        <v>955.4768161440187</v>
+        <v>1078.036275976309</v>
       </c>
       <c r="U46" t="n">
-        <v>813.6028006921541</v>
+        <v>788.8937054999432</v>
       </c>
       <c r="V46" t="n">
-        <v>706.1868675107685</v>
+        <v>681.4777723185575</v>
       </c>
       <c r="W46" t="n">
-        <v>564.0382524983091</v>
+        <v>539.3291573060982</v>
       </c>
       <c r="X46" t="n">
-        <v>360.8170087870501</v>
+        <v>458.6081614325821</v>
       </c>
       <c r="Y46" t="n">
-        <v>140.02442964352</v>
+        <v>385.0841373135532</v>
       </c>
     </row>
   </sheetData>
@@ -8699,16 +8699,16 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>189.3789542284155</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>193.6729680003714</v>
       </c>
       <c r="P11" t="n">
-        <v>287.2837171113212</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>95.76820511746632</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8781,10 +8781,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>88.69909752847252</v>
+        <v>88.69909752847235</v>
       </c>
       <c r="P12" t="n">
-        <v>305.5300408829855</v>
+        <v>305.5300408829854</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8930,19 +8930,19 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>368.7865600639897</v>
       </c>
       <c r="N14" t="n">
-        <v>143.6108742090839</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>59.76198902887197</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9012,16 +9012,16 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>391.617281174844</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>357.3768825692215</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>284.222370034314</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9167,22 +9167,22 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>155.6244954078397</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>368.7865600639896</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>260.0633584900214</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9252,10 +9252,10 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>357.3768825692208</v>
+        <v>370.8697276569475</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>380.3694741890034</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>368.7865600639897</v>
       </c>
       <c r="N20" t="n">
-        <v>143.6108742090839</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>220.9115097851073</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>41.3010765838641</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9489,13 +9489,13 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>357.3768825692208</v>
+        <v>370.8697276569475</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>304.9699235522111</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9638,28 +9638,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>372.2462401833434</v>
       </c>
       <c r="N23" t="n">
-        <v>157.3098096311736</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>19.44719899716907</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>41.3010765838641</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>395.0769612941979</v>
       </c>
       <c r="N24" t="n">
-        <v>371.0758179913101</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>83.00708306582123</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9872,10 +9872,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1847738722177326</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9884,7 +9884,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>181.0200044899861</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9893,10 +9893,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>41.3010765838641</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,25 +9951,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>303.4772551178621</v>
       </c>
       <c r="N27" t="n">
-        <v>461.0508138977365</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10115,7 +10115,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>93.70057585150346</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10127,10 +10127,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>210.1530601324391</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,22 +10188,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>263.1170340840565</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>461.0508138977365</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.1847738722177468</v>
+        <v>0.1847738722183081</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10428,25 +10428,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>461.0508138977365</v>
+        <v>259.4205695109433</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>187.2441593826267</v>
       </c>
       <c r="N35" t="n">
-        <v>334.2721356652655</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>41.3010765838641</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>52.89051232174415</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>42.02939010772258</v>
+        <v>439.7689773079101</v>
       </c>
       <c r="N36" t="n">
-        <v>419.0214237900136</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>154.0642134172325</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10829,10 +10829,10 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>416.9382561970558</v>
       </c>
       <c r="N38" t="n">
-        <v>334.2721356652646</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10841,10 +10841,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>41.3010765838641</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,25 +10902,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>285.3566559530333</v>
       </c>
       <c r="M39" t="n">
-        <v>42.02939010772297</v>
+        <v>439.7689773079103</v>
       </c>
       <c r="N39" t="n">
-        <v>419.0214237900133</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11066,13 +11066,13 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>334.2721356652647</v>
       </c>
       <c r="N41" t="n">
-        <v>408.1220033598707</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>306.9503135681401</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11139,16 +11139,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>42.02939010772269</v>
+        <v>406.6628646210066</v>
       </c>
       <c r="N42" t="n">
-        <v>419.0214237900135</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>334.2721356652655</v>
+        <v>408.1220033598705</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11315,7 +11315,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>138.4651229652978</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,28 +11373,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>42.02939010772269</v>
+        <v>439.7689773079101</v>
       </c>
       <c r="N45" t="n">
-        <v>419.0214237900135</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>159.2656206126235</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>303.165107859198</v>
       </c>
       <c r="C11" t="n">
-        <v>285.704157966725</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>275.1143078164005</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>302.3616362679793</v>
+        <v>302.3616362679792</v>
       </c>
       <c r="F11" t="n">
-        <v>327.3073119374289</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>332.9594913636452</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>231.4915937356467</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>23.94276850040939</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>131.3816879599484</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>171.5549581157774</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>25.05349610740237</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>269.6722349131305</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>290.1623668741865</v>
       </c>
       <c r="Y11" t="n">
-        <v>21.1394253611585</v>
+        <v>306.669204851771</v>
       </c>
     </row>
     <row r="12">
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1.151079231931362e-12</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23498,19 +23498,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>275.1143078164004</v>
       </c>
       <c r="E14" t="n">
-        <v>246.2313731965248</v>
+        <v>223.2467662014282</v>
       </c>
       <c r="F14" t="n">
-        <v>327.3073119374289</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>332.9594913636451</v>
       </c>
       <c r="H14" t="n">
-        <v>231.4915937356466</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>306.669204851771</v>
       </c>
     </row>
     <row r="15">
@@ -23735,13 +23735,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>13.42632660718688</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>13.42632660718922</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>13.42632660718934</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>13.42632660718701</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -26372,22 +26372,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>753993.2266122003</v>
+        <v>753993.2266122004</v>
       </c>
       <c r="F3" t="n">
-        <v>48878.85800921642</v>
+        <v>48878.85800921648</v>
       </c>
       <c r="G3" t="n">
-        <v>63654.987043426</v>
+        <v>63654.98704342604</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>920.0015970187816</v>
+        <v>920.0015970186606</v>
       </c>
       <c r="J3" t="n">
-        <v>75818.20182542145</v>
+        <v>75818.20182542151</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26399,7 +26399,7 @@
         <v>105300.8148108541</v>
       </c>
       <c r="N3" t="n">
-        <v>41782.42831583635</v>
+        <v>41782.42831583654</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26427,16 +26427,16 @@
         <v>136703.2860371436</v>
       </c>
       <c r="F4" t="n">
-        <v>155828.6686718298</v>
+        <v>155828.6686718297</v>
       </c>
       <c r="G4" t="n">
-        <v>206726.2449558836</v>
+        <v>206726.2449558837</v>
       </c>
       <c r="H4" t="n">
-        <v>206726.2449558836</v>
+        <v>206726.2449558837</v>
       </c>
       <c r="I4" t="n">
-        <v>207114.1175233572</v>
+        <v>207114.1175233571</v>
       </c>
       <c r="J4" t="n">
         <v>194662.9295016922</v>
@@ -26448,16 +26448,16 @@
         <v>194662.9295016922</v>
       </c>
       <c r="M4" t="n">
-        <v>204734.8981645466</v>
+        <v>204734.8981645465</v>
       </c>
       <c r="N4" t="n">
         <v>204734.8981645465</v>
       </c>
       <c r="O4" t="n">
-        <v>204734.8981645466</v>
+        <v>204734.8981645465</v>
       </c>
       <c r="P4" t="n">
-        <v>204734.8981645465</v>
+        <v>204734.8981645464</v>
       </c>
     </row>
     <row r="5">
@@ -26479,13 +26479,13 @@
         <v>49400.51786652592</v>
       </c>
       <c r="F5" t="n">
-        <v>59772.47212882798</v>
+        <v>59772.47212882799</v>
       </c>
       <c r="G5" t="n">
-        <v>66461.7360110202</v>
+        <v>66461.73601102023</v>
       </c>
       <c r="H5" t="n">
-        <v>66461.7360110202</v>
+        <v>66461.73601102023</v>
       </c>
       <c r="I5" t="n">
         <v>66672.08456227693</v>
@@ -26497,19 +26497,19 @@
         <v>77601.21311784603</v>
       </c>
       <c r="L5" t="n">
-        <v>77601.21311784603</v>
+        <v>77601.21311784604</v>
       </c>
       <c r="M5" t="n">
         <v>68267.74432235742</v>
       </c>
       <c r="N5" t="n">
-        <v>68267.74432235741</v>
+        <v>68267.74432235744</v>
       </c>
       <c r="O5" t="n">
-        <v>68267.74432235742</v>
+        <v>68267.74432235744</v>
       </c>
       <c r="P5" t="n">
-        <v>68267.74432235742</v>
+        <v>68267.74432235744</v>
       </c>
     </row>
     <row r="6">
@@ -26519,28 +26519,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-469901.4797192481</v>
+        <v>-469905.8932971163</v>
       </c>
       <c r="C6" t="n">
-        <v>-469901.4797192481</v>
+        <v>-469905.8932971163</v>
       </c>
       <c r="D6" t="n">
-        <v>-469901.4797192481</v>
+        <v>-469905.8932971163</v>
       </c>
       <c r="E6" t="n">
-        <v>-940097.0305158697</v>
+        <v>-940455.2346337668</v>
       </c>
       <c r="F6" t="n">
-        <v>-264479.9988098742</v>
+        <v>-264706.4587741506</v>
       </c>
       <c r="G6" t="n">
-        <v>-336842.9680103298</v>
+        <v>-336845.6398493247</v>
       </c>
       <c r="H6" t="n">
-        <v>-273187.9809669039</v>
+        <v>-273190.6528058987</v>
       </c>
       <c r="I6" t="n">
-        <v>-274706.2036826529</v>
+        <v>-274706.2036826527</v>
       </c>
       <c r="J6" t="n">
         <v>-348082.3444449598</v>
@@ -26552,16 +26552,16 @@
         <v>-335919.1296629643</v>
       </c>
       <c r="M6" t="n">
-        <v>-378303.4572977581</v>
+        <v>-378303.457297758</v>
       </c>
       <c r="N6" t="n">
-        <v>-314785.0708027403</v>
+        <v>-314785.0708027405</v>
       </c>
       <c r="O6" t="n">
-        <v>-273002.642486904</v>
+        <v>-273002.6424869039</v>
       </c>
       <c r="P6" t="n">
-        <v>-273002.6424869039</v>
+        <v>-273002.6424869038</v>
       </c>
     </row>
   </sheetData>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="F2" t="n">
         <v>79.56873380428253</v>
       </c>
       <c r="G2" t="n">
-        <v>159.137467608565</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="H2" t="n">
-        <v>159.137467608565</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="I2" t="n">
-        <v>159.137467608565</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="J2" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="K2" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="L2" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="M2" t="n">
         <v>145.7958694742563</v>
@@ -26725,7 +26725,7 @@
         <v>145.7958694742563</v>
       </c>
       <c r="P2" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>690.1599463678452</v>
+        <v>690.1599463678454</v>
       </c>
       <c r="F3" t="n">
-        <v>690.1599463678452</v>
+        <v>690.1599463678454</v>
       </c>
       <c r="G3" t="n">
-        <v>690.1599463678452</v>
+        <v>690.1599463678454</v>
       </c>
       <c r="H3" t="n">
-        <v>690.1599463678452</v>
+        <v>690.1599463678454</v>
       </c>
       <c r="I3" t="n">
-        <v>690.1599463678452</v>
+        <v>690.1599463678454</v>
       </c>
       <c r="J3" t="n">
-        <v>690.1599463678452</v>
+        <v>690.1599463678454</v>
       </c>
       <c r="K3" t="n">
-        <v>690.1599463678452</v>
+        <v>690.1599463678455</v>
       </c>
       <c r="L3" t="n">
-        <v>690.1599463678452</v>
+        <v>690.1599463678454</v>
       </c>
       <c r="M3" t="n">
-        <v>690.1599463678452</v>
+        <v>690.1599463678454</v>
       </c>
       <c r="N3" t="n">
-        <v>690.1599463678452</v>
+        <v>690.1599463678454</v>
       </c>
       <c r="O3" t="n">
-        <v>690.1599463678452</v>
+        <v>690.1599463678454</v>
       </c>
       <c r="P3" t="n">
-        <v>690.1599463678452</v>
+        <v>690.1599463678457</v>
       </c>
     </row>
     <row r="4">
@@ -26799,37 +26799,37 @@
         <v>455.0290650249123</v>
       </c>
       <c r="F4" t="n">
-        <v>625.6204180233013</v>
+        <v>625.6204180233016</v>
       </c>
       <c r="G4" t="n">
-        <v>625.6204180233013</v>
+        <v>625.6204180233016</v>
       </c>
       <c r="H4" t="n">
-        <v>625.6204180233013</v>
+        <v>625.6204180233016</v>
       </c>
       <c r="I4" t="n">
-        <v>629.0800981426555</v>
+        <v>629.0800981426553</v>
       </c>
       <c r="J4" t="n">
         <v>918.8562895532036</v>
       </c>
       <c r="K4" t="n">
-        <v>918.8562895532036</v>
+        <v>918.8562895532035</v>
       </c>
       <c r="L4" t="n">
-        <v>918.8562895532036</v>
+        <v>918.8562895532039</v>
       </c>
       <c r="M4" t="n">
+        <v>673.7721141563675</v>
+      </c>
+      <c r="N4" t="n">
+        <v>673.7721141563677</v>
+      </c>
+      <c r="O4" t="n">
         <v>673.7721141563676</v>
       </c>
-      <c r="N4" t="n">
-        <v>673.7721141563673</v>
-      </c>
-      <c r="O4" t="n">
-        <v>673.7721141563675</v>
-      </c>
       <c r="P4" t="n">
-        <v>673.7721141563675</v>
+        <v>673.7721141563676</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>79.5687338042825</v>
       </c>
       <c r="M2" t="n">
-        <v>66.22713566997375</v>
+        <v>66.22713566997379</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>690.1599463678452</v>
+        <v>690.1599463678454</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27021,7 +27021,7 @@
         <v>455.0290650249123</v>
       </c>
       <c r="F4" t="n">
-        <v>170.591352998389</v>
+        <v>170.5913529983893</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>3.459680119354175</v>
+        <v>3.45968011935372</v>
       </c>
       <c r="J4" t="n">
-        <v>289.7761914105481</v>
+        <v>289.7761914105483</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>209.9448896280763</v>
+        <v>209.9448896280759</v>
       </c>
       <c r="N4" t="n">
-        <v>170.5913529983887</v>
+        <v>170.5913529983895</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27267,7 +27267,7 @@
         <v>455.0290650249123</v>
       </c>
       <c r="N4" t="n">
-        <v>170.591352998389</v>
+        <v>170.5913529983893</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="C11" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="D11" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="E11" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="F11" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="G11" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="H11" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="I11" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="T11" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="U11" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="V11" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="W11" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="X11" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="Y11" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
     </row>
     <row r="12">
@@ -28166,28 +28166,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="C12" t="n">
-        <v>79.56873380428252</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="E12" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="F12" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="G12" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="H12" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="I12" t="n">
-        <v>38.28573116285295</v>
+        <v>38.28573116285294</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28217,7 +28217,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -28226,16 +28226,16 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="W12" t="n">
-        <v>79.56873380428252</v>
+        <v>9.237407409830695</v>
       </c>
       <c r="X12" t="n">
-        <v>9.237407409830496</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="Y12" t="n">
-        <v>79.56873380428252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="C13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="D13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="E13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="F13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="G13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="H13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="I13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="J13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="K13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="L13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="M13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="N13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="O13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="P13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="Q13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="R13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="S13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="T13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="U13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="V13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="W13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="X13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="Y13" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428253</v>
       </c>
     </row>
     <row r="14">
@@ -28406,7 +28406,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>22.04208629079469</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -28418,13 +28418,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>63.32508893222521</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>38.28573116285295</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>159.137467608565</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="C17" t="n">
-        <v>159.137467608565</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="D17" t="n">
-        <v>159.137467608565</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="E17" t="n">
-        <v>159.137467608565</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="F17" t="n">
-        <v>159.137467608565</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="G17" t="n">
-        <v>159.137467608565</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="H17" t="n">
-        <v>159.137467608565</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="I17" t="n">
         <v>103.5115023046919</v>
@@ -28615,22 +28615,22 @@
         <v>145.7958694742563</v>
       </c>
       <c r="T17" t="n">
-        <v>159.137467608565</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="U17" t="n">
-        <v>159.137467608565</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="V17" t="n">
-        <v>159.137467608565</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="W17" t="n">
-        <v>159.137467608565</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="X17" t="n">
-        <v>159.137467608565</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="Y17" t="n">
-        <v>159.137467608565</v>
+        <v>159.1374676085651</v>
       </c>
     </row>
     <row r="18">
@@ -28649,13 +28649,13 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>101.6108200950773</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>101.6108200950781</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -28719,10 +28719,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="C19" t="n">
-        <v>159.137467608565</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -28734,7 +28734,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>159.137467608565</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="H19" t="n">
         <v>151.1619851705912</v>
@@ -28743,7 +28743,7 @@
         <v>118.0234404586545</v>
       </c>
       <c r="J19" t="n">
-        <v>5.369444003513237</v>
+        <v>5.369444003513223</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28767,25 +28767,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>121.3338652339668</v>
+        <v>68.10149423638147</v>
       </c>
       <c r="S19" t="n">
-        <v>159.137467608565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>105.9050966109799</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="V19" t="n">
-        <v>159.137467608565</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>159.137467608565</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="X19" t="n">
-        <v>159.137467608565</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>159.137467608565</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="C20" t="n">
-        <v>159.137467608565</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="D20" t="n">
-        <v>159.137467608565</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="E20" t="n">
-        <v>159.137467608565</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="F20" t="n">
-        <v>159.137467608565</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="G20" t="n">
-        <v>159.137467608565</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="H20" t="n">
-        <v>159.137467608565</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="I20" t="n">
         <v>103.5115023046919</v>
@@ -28852,22 +28852,22 @@
         <v>145.7958694742563</v>
       </c>
       <c r="T20" t="n">
-        <v>159.137467608565</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="U20" t="n">
-        <v>159.137467608565</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="V20" t="n">
-        <v>159.137467608565</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="W20" t="n">
-        <v>159.137467608565</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="X20" t="n">
-        <v>159.137467608565</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="Y20" t="n">
-        <v>159.137467608565</v>
+        <v>159.1374676085651</v>
       </c>
     </row>
     <row r="21">
@@ -28895,10 +28895,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>97.89834799213801</v>
+        <v>63.32508893222431</v>
       </c>
       <c r="I21" t="n">
-        <v>3.712472102940133</v>
+        <v>38.28573116285294</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28956,10 +28956,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>159.137467608565</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -28971,7 +28971,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>159.137467608565</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="H22" t="n">
         <v>151.1619851705912</v>
@@ -28980,7 +28980,7 @@
         <v>118.0234404586545</v>
       </c>
       <c r="J22" t="n">
-        <v>5.369444003513237</v>
+        <v>5.369444003513223</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>68.1014942363817</v>
       </c>
       <c r="S22" t="n">
-        <v>159.137467608565</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="T22" t="n">
-        <v>159.137467608565</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="U22" t="n">
-        <v>159.137467608565</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>159.137467608565</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>159.137467608565</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="X22" t="n">
-        <v>68.10149423638188</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>159.1374676085651</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>159.137467608565</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="C23" t="n">
-        <v>159.137467608565</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="D23" t="n">
-        <v>159.137467608565</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="E23" t="n">
-        <v>159.137467608565</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="F23" t="n">
-        <v>159.137467608565</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="G23" t="n">
-        <v>159.137467608565</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="H23" t="n">
-        <v>159.137467608565</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="I23" t="n">
         <v>103.5115023046919</v>
@@ -29089,22 +29089,22 @@
         <v>145.7958694742563</v>
       </c>
       <c r="T23" t="n">
-        <v>159.137467608565</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="U23" t="n">
-        <v>159.137467608565</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="V23" t="n">
-        <v>159.137467608565</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="W23" t="n">
-        <v>159.137467608565</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="X23" t="n">
-        <v>159.137467608565</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="Y23" t="n">
-        <v>159.137467608565</v>
+        <v>159.1374676085651</v>
       </c>
     </row>
     <row r="24">
@@ -29126,16 +29126,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>88.18449348788934</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>49.89876232503551</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>38.28573116285295</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29193,10 +29193,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>159.137467608565</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="C25" t="n">
-        <v>159.137467608565</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -29205,10 +29205,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>81.66668243499311</v>
       </c>
       <c r="G25" t="n">
-        <v>159.137467608565</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="H25" t="n">
         <v>151.1619851705912</v>
@@ -29217,7 +29217,7 @@
         <v>118.0234404586545</v>
       </c>
       <c r="J25" t="n">
-        <v>5.369444003513237</v>
+        <v>5.369444003513223</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>121.3338652339668</v>
       </c>
       <c r="S25" t="n">
-        <v>159.137467608565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>159.137467608565</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="U25" t="n">
-        <v>159.137467608565</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="V25" t="n">
-        <v>57.57949964602929</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="X25" t="n">
-        <v>159.137467608565</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="Y25" t="n">
-        <v>159.137467608565</v>
+        <v>159.1374676085651</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="C26" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="D26" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="E26" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="F26" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="G26" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="H26" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="I26" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="T26" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="U26" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="V26" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="W26" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="X26" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="Y26" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="C28" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="D28" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="E28" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="F28" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="G28" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="H28" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="I28" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="J28" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="K28" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="L28" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="M28" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="N28" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="O28" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="P28" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428215</v>
       </c>
       <c r="Q28" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="R28" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="S28" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="T28" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="U28" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="V28" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="W28" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="X28" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="Y28" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="C29" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="D29" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="E29" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="F29" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="G29" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="H29" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="I29" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="T29" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="U29" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="V29" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="W29" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="X29" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="Y29" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="C31" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="D31" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="E31" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="F31" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="G31" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="H31" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="I31" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="J31" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="K31" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="L31" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="M31" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="N31" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="O31" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="P31" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="Q31" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="R31" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="S31" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="T31" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="U31" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="V31" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="W31" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="X31" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
       <c r="Y31" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428254</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="C32" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="D32" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="E32" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="F32" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="G32" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="H32" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="I32" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="T32" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="U32" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="V32" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="W32" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="X32" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="Y32" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428249</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="C34" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="D34" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="E34" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="F34" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="G34" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="H34" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="I34" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="J34" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="K34" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="L34" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="M34" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="N34" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="O34" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="P34" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="Q34" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="R34" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="S34" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="T34" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="U34" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="V34" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="W34" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="X34" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="Y34" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428249</v>
       </c>
     </row>
     <row r="35">
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>48.98262835518003</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="C37" t="n">
         <v>145.7958694742563</v>
@@ -30165,7 +30165,7 @@
         <v>118.0234404586545</v>
       </c>
       <c r="J37" t="n">
-        <v>5.369444003513237</v>
+        <v>5.369444003513223</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30192,25 +30192,25 @@
         <v>121.3338652339668</v>
       </c>
       <c r="S37" t="n">
+        <v>48.98262835518005</v>
+      </c>
+      <c r="T37" t="n">
         <v>145.7958694742563</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>145.7958694742563</v>
       </c>
       <c r="V37" t="n">
-        <v>145.7958694742563</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>145.7958694742563</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>145.7958694742563</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>145.7958694742563</v>
       </c>
     </row>
     <row r="38">
@@ -30384,7 +30384,7 @@
         <v>145.7958694742563</v>
       </c>
       <c r="D40" t="n">
-        <v>145.7958694742563</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>145.7958694742563</v>
@@ -30402,7 +30402,7 @@
         <v>118.0234404586545</v>
       </c>
       <c r="J40" t="n">
-        <v>5.369444003513237</v>
+        <v>5.369444003513223</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30429,19 +30429,19 @@
         <v>121.3338652339668</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="T40" t="n">
-        <v>48.98262835517997</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="U40" t="n">
         <v>145.7958694742563</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>48.98262835518005</v>
       </c>
       <c r="W40" t="n">
-        <v>145.7958694742563</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>145.7958694742563</v>
@@ -30627,7 +30627,7 @@
         <v>145.7958694742563</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>145.7958694742563</v>
@@ -30639,7 +30639,7 @@
         <v>118.0234404586545</v>
       </c>
       <c r="J43" t="n">
-        <v>5.369444003513237</v>
+        <v>5.369444003513223</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30666,7 +30666,7 @@
         <v>121.3338652339668</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="T43" t="n">
         <v>145.7958694742563</v>
@@ -30678,13 +30678,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>145.7958694742563</v>
+        <v>48.60780690385494</v>
       </c>
       <c r="X43" t="n">
         <v>145.7958694742563</v>
       </c>
       <c r="Y43" t="n">
-        <v>48.98262835518005</v>
+        <v>145.7958694742563</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="C44" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="D44" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="E44" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="F44" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="G44" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="H44" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="I44" t="n">
-        <v>103.5115023046919</v>
+        <v>103.5115023046918</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="T44" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="U44" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="V44" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="W44" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="X44" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
     </row>
     <row r="45">
@@ -30852,31 +30852,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>145.7958694742563</v>
+        <v>48.60780690385479</v>
       </c>
       <c r="C46" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="D46" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="E46" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="H46" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="I46" t="n">
-        <v>118.0234404586545</v>
+        <v>118.0234404586544</v>
       </c>
       <c r="J46" t="n">
-        <v>5.369444003513237</v>
+        <v>5.369444003513181</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>121.3338652339668</v>
       </c>
       <c r="S46" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="T46" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="U46" t="n">
-        <v>145.7958694742563</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="W46" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="X46" t="n">
-        <v>24.52062411489072</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>145.7958694742562</v>
       </c>
     </row>
   </sheetData>
@@ -31759,28 +31759,28 @@
         <v>106.964387265714</v>
       </c>
       <c r="J11" t="n">
-        <v>235.4832673287956</v>
+        <v>235.4832673287957</v>
       </c>
       <c r="K11" t="n">
-        <v>352.9283749860856</v>
+        <v>352.9283749860857</v>
       </c>
       <c r="L11" t="n">
-        <v>437.8388572319346</v>
+        <v>437.8388572319348</v>
       </c>
       <c r="M11" t="n">
-        <v>487.1800911865845</v>
+        <v>487.1800911865846</v>
       </c>
       <c r="N11" t="n">
-        <v>495.0631743930876</v>
+        <v>495.0631743930877</v>
       </c>
       <c r="O11" t="n">
         <v>467.4741172405439</v>
       </c>
       <c r="P11" t="n">
-        <v>398.9783436688607</v>
+        <v>398.9783436688608</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.616120234495</v>
+        <v>299.6161202344951</v>
       </c>
       <c r="R11" t="n">
         <v>174.284461230268</v>
@@ -31792,7 +31792,7 @@
         <v>12.14542779990047</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2219609877765932</v>
+        <v>0.2219609877765933</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>14.33709624435845</v>
       </c>
       <c r="I12" t="n">
-        <v>51.11090168856213</v>
+        <v>51.11090168856214</v>
       </c>
       <c r="J12" t="n">
         <v>140.2522207991487</v>
@@ -31847,13 +31847,13 @@
         <v>322.3242277824546</v>
       </c>
       <c r="M12" t="n">
-        <v>376.1371707704756</v>
+        <v>376.1371707704757</v>
       </c>
       <c r="N12" t="n">
-        <v>386.0924024496873</v>
+        <v>386.0924024496874</v>
       </c>
       <c r="O12" t="n">
-        <v>353.1991189680802</v>
+        <v>353.1991189680803</v>
       </c>
       <c r="P12" t="n">
         <v>283.4734315562571</v>
@@ -31862,7 +31862,7 @@
         <v>189.4944818782054</v>
       </c>
       <c r="R12" t="n">
-        <v>92.16890755455869</v>
+        <v>92.1689075545587</v>
       </c>
       <c r="S12" t="n">
         <v>27.57384314026248</v>
@@ -31871,7 +31871,7 @@
         <v>5.983556516151411</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0976641433539404</v>
+        <v>0.09766414335394043</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31917,16 +31917,16 @@
         <v>37.42703446860381</v>
       </c>
       <c r="J13" t="n">
-        <v>87.98973611315954</v>
+        <v>87.98973611315955</v>
       </c>
       <c r="K13" t="n">
-        <v>144.5941658128042</v>
+        <v>144.5941658128043</v>
       </c>
       <c r="L13" t="n">
         <v>185.0307502114712</v>
       </c>
       <c r="M13" t="n">
-        <v>195.0889828724713</v>
+        <v>195.0889828724714</v>
       </c>
       <c r="N13" t="n">
         <v>190.4502029050811</v>
@@ -31935,22 +31935,22 @@
         <v>175.9115876414305</v>
       </c>
       <c r="P13" t="n">
-        <v>150.5227528930788</v>
+        <v>150.5227528930789</v>
       </c>
       <c r="Q13" t="n">
         <v>104.2141519015446</v>
       </c>
       <c r="R13" t="n">
-        <v>55.95952614320264</v>
+        <v>55.95952614320265</v>
       </c>
       <c r="S13" t="n">
-        <v>21.68912487192063</v>
+        <v>21.68912487192064</v>
       </c>
       <c r="T13" t="n">
-        <v>5.317625816276839</v>
+        <v>5.31762581627684</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06788458488864059</v>
+        <v>0.0678845848886406</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31996,28 +31996,28 @@
         <v>106.964387265714</v>
       </c>
       <c r="J14" t="n">
-        <v>235.4832673287956</v>
+        <v>235.4832673287957</v>
       </c>
       <c r="K14" t="n">
-        <v>352.9283749860856</v>
+        <v>352.9283749860857</v>
       </c>
       <c r="L14" t="n">
-        <v>437.8388572319346</v>
+        <v>437.8388572319348</v>
       </c>
       <c r="M14" t="n">
-        <v>487.1800911865845</v>
+        <v>487.1800911865846</v>
       </c>
       <c r="N14" t="n">
-        <v>495.0631743930876</v>
+        <v>495.0631743930877</v>
       </c>
       <c r="O14" t="n">
         <v>467.4741172405439</v>
       </c>
       <c r="P14" t="n">
-        <v>398.9783436688607</v>
+        <v>398.9783436688608</v>
       </c>
       <c r="Q14" t="n">
-        <v>299.616120234495</v>
+        <v>299.6161202344951</v>
       </c>
       <c r="R14" t="n">
         <v>174.284461230268</v>
@@ -32029,7 +32029,7 @@
         <v>12.14542779990047</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2219609877765932</v>
+        <v>0.2219609877765933</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>14.33709624435845</v>
       </c>
       <c r="I15" t="n">
-        <v>51.11090168856213</v>
+        <v>51.11090168856214</v>
       </c>
       <c r="J15" t="n">
         <v>140.2522207991487</v>
@@ -32084,13 +32084,13 @@
         <v>322.3242277824546</v>
       </c>
       <c r="M15" t="n">
-        <v>376.1371707704756</v>
+        <v>376.1371707704757</v>
       </c>
       <c r="N15" t="n">
-        <v>386.0924024496873</v>
+        <v>386.0924024496874</v>
       </c>
       <c r="O15" t="n">
-        <v>353.1991189680802</v>
+        <v>353.1991189680803</v>
       </c>
       <c r="P15" t="n">
         <v>283.4734315562571</v>
@@ -32099,7 +32099,7 @@
         <v>189.4944818782054</v>
       </c>
       <c r="R15" t="n">
-        <v>92.16890755455869</v>
+        <v>92.1689075545587</v>
       </c>
       <c r="S15" t="n">
         <v>27.57384314026248</v>
@@ -32108,7 +32108,7 @@
         <v>5.983556516151411</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0976641433539404</v>
+        <v>0.09766414335394043</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32154,16 +32154,16 @@
         <v>37.42703446860381</v>
       </c>
       <c r="J16" t="n">
-        <v>87.98973611315954</v>
+        <v>87.98973611315955</v>
       </c>
       <c r="K16" t="n">
-        <v>144.5941658128042</v>
+        <v>144.5941658128043</v>
       </c>
       <c r="L16" t="n">
         <v>185.0307502114712</v>
       </c>
       <c r="M16" t="n">
-        <v>195.0889828724713</v>
+        <v>195.0889828724714</v>
       </c>
       <c r="N16" t="n">
         <v>190.4502029050811</v>
@@ -32172,22 +32172,22 @@
         <v>175.9115876414305</v>
       </c>
       <c r="P16" t="n">
-        <v>150.5227528930788</v>
+        <v>150.5227528930789</v>
       </c>
       <c r="Q16" t="n">
         <v>104.2141519015446</v>
       </c>
       <c r="R16" t="n">
-        <v>55.95952614320264</v>
+        <v>55.95952614320265</v>
       </c>
       <c r="S16" t="n">
-        <v>21.68912487192063</v>
+        <v>21.68912487192064</v>
       </c>
       <c r="T16" t="n">
-        <v>5.317625816276839</v>
+        <v>5.31762581627684</v>
       </c>
       <c r="U16" t="n">
-        <v>0.06788458488864059</v>
+        <v>0.0678845848886406</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32233,28 +32233,28 @@
         <v>106.964387265714</v>
       </c>
       <c r="J17" t="n">
-        <v>235.4832673287956</v>
+        <v>235.4832673287957</v>
       </c>
       <c r="K17" t="n">
-        <v>352.9283749860856</v>
+        <v>352.9283749860857</v>
       </c>
       <c r="L17" t="n">
-        <v>437.8388572319346</v>
+        <v>437.8388572319348</v>
       </c>
       <c r="M17" t="n">
-        <v>487.1800911865845</v>
+        <v>487.1800911865846</v>
       </c>
       <c r="N17" t="n">
-        <v>495.0631743930876</v>
+        <v>495.0631743930877</v>
       </c>
       <c r="O17" t="n">
         <v>467.4741172405439</v>
       </c>
       <c r="P17" t="n">
-        <v>398.9783436688607</v>
+        <v>398.9783436688608</v>
       </c>
       <c r="Q17" t="n">
-        <v>299.616120234495</v>
+        <v>299.6161202344951</v>
       </c>
       <c r="R17" t="n">
         <v>174.284461230268</v>
@@ -32266,7 +32266,7 @@
         <v>12.14542779990047</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2219609877765932</v>
+        <v>0.2219609877765933</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,7 +32309,7 @@
         <v>14.33709624435845</v>
       </c>
       <c r="I18" t="n">
-        <v>51.11090168856213</v>
+        <v>51.11090168856214</v>
       </c>
       <c r="J18" t="n">
         <v>140.2522207991487</v>
@@ -32321,13 +32321,13 @@
         <v>322.3242277824546</v>
       </c>
       <c r="M18" t="n">
-        <v>376.1371707704756</v>
+        <v>376.1371707704757</v>
       </c>
       <c r="N18" t="n">
-        <v>386.0924024496873</v>
+        <v>386.0924024496874</v>
       </c>
       <c r="O18" t="n">
-        <v>353.1991189680802</v>
+        <v>353.1991189680803</v>
       </c>
       <c r="P18" t="n">
         <v>283.4734315562571</v>
@@ -32336,7 +32336,7 @@
         <v>189.4944818782054</v>
       </c>
       <c r="R18" t="n">
-        <v>92.16890755455869</v>
+        <v>92.1689075545587</v>
       </c>
       <c r="S18" t="n">
         <v>27.57384314026248</v>
@@ -32345,7 +32345,7 @@
         <v>5.983556516151411</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0976641433539404</v>
+        <v>0.09766414335394043</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32391,16 +32391,16 @@
         <v>37.42703446860381</v>
       </c>
       <c r="J19" t="n">
-        <v>87.98973611315954</v>
+        <v>87.98973611315955</v>
       </c>
       <c r="K19" t="n">
-        <v>144.5941658128042</v>
+        <v>144.5941658128043</v>
       </c>
       <c r="L19" t="n">
         <v>185.0307502114712</v>
       </c>
       <c r="M19" t="n">
-        <v>195.0889828724713</v>
+        <v>195.0889828724714</v>
       </c>
       <c r="N19" t="n">
         <v>190.4502029050811</v>
@@ -32409,22 +32409,22 @@
         <v>175.9115876414305</v>
       </c>
       <c r="P19" t="n">
-        <v>150.5227528930788</v>
+        <v>150.5227528930789</v>
       </c>
       <c r="Q19" t="n">
         <v>104.2141519015446</v>
       </c>
       <c r="R19" t="n">
-        <v>55.95952614320264</v>
+        <v>55.95952614320265</v>
       </c>
       <c r="S19" t="n">
-        <v>21.68912487192063</v>
+        <v>21.68912487192064</v>
       </c>
       <c r="T19" t="n">
-        <v>5.317625816276839</v>
+        <v>5.31762581627684</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06788458488864059</v>
+        <v>0.0678845848886406</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32470,28 +32470,28 @@
         <v>106.964387265714</v>
       </c>
       <c r="J20" t="n">
-        <v>235.4832673287956</v>
+        <v>235.4832673287957</v>
       </c>
       <c r="K20" t="n">
-        <v>352.9283749860856</v>
+        <v>352.9283749860857</v>
       </c>
       <c r="L20" t="n">
-        <v>437.8388572319346</v>
+        <v>437.8388572319348</v>
       </c>
       <c r="M20" t="n">
-        <v>487.1800911865845</v>
+        <v>487.1800911865846</v>
       </c>
       <c r="N20" t="n">
-        <v>495.0631743930876</v>
+        <v>495.0631743930877</v>
       </c>
       <c r="O20" t="n">
         <v>467.4741172405439</v>
       </c>
       <c r="P20" t="n">
-        <v>398.9783436688607</v>
+        <v>398.9783436688608</v>
       </c>
       <c r="Q20" t="n">
-        <v>299.616120234495</v>
+        <v>299.6161202344951</v>
       </c>
       <c r="R20" t="n">
         <v>174.284461230268</v>
@@ -32503,7 +32503,7 @@
         <v>12.14542779990047</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2219609877765932</v>
+        <v>0.2219609877765933</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,7 +32546,7 @@
         <v>14.33709624435845</v>
       </c>
       <c r="I21" t="n">
-        <v>51.11090168856213</v>
+        <v>51.11090168856214</v>
       </c>
       <c r="J21" t="n">
         <v>140.2522207991487</v>
@@ -32558,13 +32558,13 @@
         <v>322.3242277824546</v>
       </c>
       <c r="M21" t="n">
-        <v>376.1371707704756</v>
+        <v>376.1371707704757</v>
       </c>
       <c r="N21" t="n">
-        <v>386.0924024496873</v>
+        <v>386.0924024496874</v>
       </c>
       <c r="O21" t="n">
-        <v>353.1991189680802</v>
+        <v>353.1991189680803</v>
       </c>
       <c r="P21" t="n">
         <v>283.4734315562571</v>
@@ -32573,7 +32573,7 @@
         <v>189.4944818782054</v>
       </c>
       <c r="R21" t="n">
-        <v>92.16890755455869</v>
+        <v>92.1689075545587</v>
       </c>
       <c r="S21" t="n">
         <v>27.57384314026248</v>
@@ -32582,7 +32582,7 @@
         <v>5.983556516151411</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0976641433539404</v>
+        <v>0.09766414335394043</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32628,16 +32628,16 @@
         <v>37.42703446860381</v>
       </c>
       <c r="J22" t="n">
-        <v>87.98973611315954</v>
+        <v>87.98973611315955</v>
       </c>
       <c r="K22" t="n">
-        <v>144.5941658128042</v>
+        <v>144.5941658128043</v>
       </c>
       <c r="L22" t="n">
         <v>185.0307502114712</v>
       </c>
       <c r="M22" t="n">
-        <v>195.0889828724713</v>
+        <v>195.0889828724714</v>
       </c>
       <c r="N22" t="n">
         <v>190.4502029050811</v>
@@ -32646,22 +32646,22 @@
         <v>175.9115876414305</v>
       </c>
       <c r="P22" t="n">
-        <v>150.5227528930788</v>
+        <v>150.5227528930789</v>
       </c>
       <c r="Q22" t="n">
         <v>104.2141519015446</v>
       </c>
       <c r="R22" t="n">
-        <v>55.95952614320264</v>
+        <v>55.95952614320265</v>
       </c>
       <c r="S22" t="n">
-        <v>21.68912487192063</v>
+        <v>21.68912487192064</v>
       </c>
       <c r="T22" t="n">
-        <v>5.317625816276839</v>
+        <v>5.31762581627684</v>
       </c>
       <c r="U22" t="n">
-        <v>0.06788458488864059</v>
+        <v>0.0678845848886406</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32707,28 +32707,28 @@
         <v>106.964387265714</v>
       </c>
       <c r="J23" t="n">
-        <v>235.4832673287956</v>
+        <v>235.4832673287957</v>
       </c>
       <c r="K23" t="n">
-        <v>352.9283749860856</v>
+        <v>352.9283749860857</v>
       </c>
       <c r="L23" t="n">
-        <v>437.8388572319346</v>
+        <v>437.8388572319348</v>
       </c>
       <c r="M23" t="n">
-        <v>487.1800911865845</v>
+        <v>487.1800911865846</v>
       </c>
       <c r="N23" t="n">
-        <v>495.0631743930876</v>
+        <v>495.0631743930877</v>
       </c>
       <c r="O23" t="n">
         <v>467.4741172405439</v>
       </c>
       <c r="P23" t="n">
-        <v>398.9783436688607</v>
+        <v>398.9783436688608</v>
       </c>
       <c r="Q23" t="n">
-        <v>299.616120234495</v>
+        <v>299.6161202344951</v>
       </c>
       <c r="R23" t="n">
         <v>174.284461230268</v>
@@ -32740,7 +32740,7 @@
         <v>12.14542779990047</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2219609877765932</v>
+        <v>0.2219609877765933</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,7 +32783,7 @@
         <v>14.33709624435845</v>
       </c>
       <c r="I24" t="n">
-        <v>51.11090168856213</v>
+        <v>51.11090168856214</v>
       </c>
       <c r="J24" t="n">
         <v>140.2522207991487</v>
@@ -32795,13 +32795,13 @@
         <v>322.3242277824546</v>
       </c>
       <c r="M24" t="n">
-        <v>376.1371707704756</v>
+        <v>376.1371707704757</v>
       </c>
       <c r="N24" t="n">
-        <v>386.0924024496873</v>
+        <v>386.0924024496874</v>
       </c>
       <c r="O24" t="n">
-        <v>353.1991189680802</v>
+        <v>353.1991189680803</v>
       </c>
       <c r="P24" t="n">
         <v>283.4734315562571</v>
@@ -32810,7 +32810,7 @@
         <v>189.4944818782054</v>
       </c>
       <c r="R24" t="n">
-        <v>92.16890755455869</v>
+        <v>92.1689075545587</v>
       </c>
       <c r="S24" t="n">
         <v>27.57384314026248</v>
@@ -32819,7 +32819,7 @@
         <v>5.983556516151411</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0976641433539404</v>
+        <v>0.09766414335394043</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32865,16 +32865,16 @@
         <v>37.42703446860381</v>
       </c>
       <c r="J25" t="n">
-        <v>87.98973611315954</v>
+        <v>87.98973611315955</v>
       </c>
       <c r="K25" t="n">
-        <v>144.5941658128042</v>
+        <v>144.5941658128043</v>
       </c>
       <c r="L25" t="n">
         <v>185.0307502114712</v>
       </c>
       <c r="M25" t="n">
-        <v>195.0889828724713</v>
+        <v>195.0889828724714</v>
       </c>
       <c r="N25" t="n">
         <v>190.4502029050811</v>
@@ -32883,22 +32883,22 @@
         <v>175.9115876414305</v>
       </c>
       <c r="P25" t="n">
-        <v>150.5227528930788</v>
+        <v>150.5227528930789</v>
       </c>
       <c r="Q25" t="n">
         <v>104.2141519015446</v>
       </c>
       <c r="R25" t="n">
-        <v>55.95952614320264</v>
+        <v>55.95952614320265</v>
       </c>
       <c r="S25" t="n">
-        <v>21.68912487192063</v>
+        <v>21.68912487192064</v>
       </c>
       <c r="T25" t="n">
-        <v>5.317625816276839</v>
+        <v>5.31762581627684</v>
       </c>
       <c r="U25" t="n">
-        <v>0.06788458488864059</v>
+        <v>0.0678845848886406</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32944,28 +32944,28 @@
         <v>106.964387265714</v>
       </c>
       <c r="J26" t="n">
-        <v>235.4832673287956</v>
+        <v>235.4832673287957</v>
       </c>
       <c r="K26" t="n">
-        <v>352.9283749860856</v>
+        <v>352.9283749860857</v>
       </c>
       <c r="L26" t="n">
-        <v>437.8388572319346</v>
+        <v>437.8388572319348</v>
       </c>
       <c r="M26" t="n">
-        <v>487.1800911865845</v>
+        <v>487.1800911865846</v>
       </c>
       <c r="N26" t="n">
-        <v>495.0631743930876</v>
+        <v>495.0631743930877</v>
       </c>
       <c r="O26" t="n">
         <v>467.4741172405439</v>
       </c>
       <c r="P26" t="n">
-        <v>398.9783436688607</v>
+        <v>398.9783436688608</v>
       </c>
       <c r="Q26" t="n">
-        <v>299.616120234495</v>
+        <v>299.6161202344951</v>
       </c>
       <c r="R26" t="n">
         <v>174.284461230268</v>
@@ -32977,7 +32977,7 @@
         <v>12.14542779990047</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2219609877765932</v>
+        <v>0.2219609877765933</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,7 +33020,7 @@
         <v>14.33709624435845</v>
       </c>
       <c r="I27" t="n">
-        <v>51.11090168856213</v>
+        <v>51.11090168856214</v>
       </c>
       <c r="J27" t="n">
         <v>140.2522207991487</v>
@@ -33032,13 +33032,13 @@
         <v>322.3242277824546</v>
       </c>
       <c r="M27" t="n">
-        <v>376.1371707704756</v>
+        <v>376.1371707704757</v>
       </c>
       <c r="N27" t="n">
-        <v>386.0924024496873</v>
+        <v>386.0924024496874</v>
       </c>
       <c r="O27" t="n">
-        <v>353.1991189680802</v>
+        <v>353.1991189680803</v>
       </c>
       <c r="P27" t="n">
         <v>283.4734315562571</v>
@@ -33047,7 +33047,7 @@
         <v>189.4944818782054</v>
       </c>
       <c r="R27" t="n">
-        <v>92.16890755455869</v>
+        <v>92.1689075545587</v>
       </c>
       <c r="S27" t="n">
         <v>27.57384314026248</v>
@@ -33056,7 +33056,7 @@
         <v>5.983556516151411</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0976641433539404</v>
+        <v>0.09766414335394043</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33102,16 +33102,16 @@
         <v>37.42703446860381</v>
       </c>
       <c r="J28" t="n">
-        <v>87.98973611315954</v>
+        <v>87.98973611315955</v>
       </c>
       <c r="K28" t="n">
-        <v>144.5941658128042</v>
+        <v>144.5941658128043</v>
       </c>
       <c r="L28" t="n">
         <v>185.0307502114712</v>
       </c>
       <c r="M28" t="n">
-        <v>195.0889828724713</v>
+        <v>195.0889828724714</v>
       </c>
       <c r="N28" t="n">
         <v>190.4502029050811</v>
@@ -33120,22 +33120,22 @@
         <v>175.9115876414305</v>
       </c>
       <c r="P28" t="n">
-        <v>150.5227528930788</v>
+        <v>150.5227528930789</v>
       </c>
       <c r="Q28" t="n">
         <v>104.2141519015446</v>
       </c>
       <c r="R28" t="n">
-        <v>55.95952614320264</v>
+        <v>55.95952614320265</v>
       </c>
       <c r="S28" t="n">
-        <v>21.68912487192063</v>
+        <v>21.68912487192064</v>
       </c>
       <c r="T28" t="n">
-        <v>5.317625816276839</v>
+        <v>5.31762581627684</v>
       </c>
       <c r="U28" t="n">
-        <v>0.06788458488864059</v>
+        <v>0.0678845848886406</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.774512347207416</v>
+        <v>2.774512347207417</v>
       </c>
       <c r="H29" t="n">
         <v>28.41447457583796</v>
@@ -33181,40 +33181,40 @@
         <v>106.964387265714</v>
       </c>
       <c r="J29" t="n">
-        <v>235.4832673287956</v>
+        <v>235.4832673287957</v>
       </c>
       <c r="K29" t="n">
-        <v>352.9283749860856</v>
+        <v>352.9283749860857</v>
       </c>
       <c r="L29" t="n">
-        <v>437.8388572319346</v>
+        <v>437.8388572319348</v>
       </c>
       <c r="M29" t="n">
-        <v>487.1800911865845</v>
+        <v>487.1800911865847</v>
       </c>
       <c r="N29" t="n">
-        <v>495.0631743930876</v>
+        <v>495.0631743930878</v>
       </c>
       <c r="O29" t="n">
-        <v>467.4741172405439</v>
+        <v>467.474117240544</v>
       </c>
       <c r="P29" t="n">
-        <v>398.9783436688607</v>
+        <v>398.9783436688609</v>
       </c>
       <c r="Q29" t="n">
-        <v>299.616120234495</v>
+        <v>299.6161202344952</v>
       </c>
       <c r="R29" t="n">
-        <v>174.284461230268</v>
+        <v>174.2844612302681</v>
       </c>
       <c r="S29" t="n">
-        <v>63.22420011198906</v>
+        <v>63.22420011198908</v>
       </c>
       <c r="T29" t="n">
         <v>12.14542779990047</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2219609877765932</v>
+        <v>0.2219609877765933</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,25 +33257,25 @@
         <v>14.33709624435845</v>
       </c>
       <c r="I30" t="n">
-        <v>51.11090168856213</v>
+        <v>51.11090168856215</v>
       </c>
       <c r="J30" t="n">
         <v>140.2522207991487</v>
       </c>
       <c r="K30" t="n">
-        <v>239.7133843908015</v>
+        <v>239.7133843908016</v>
       </c>
       <c r="L30" t="n">
-        <v>322.3242277824546</v>
+        <v>322.3242277824547</v>
       </c>
       <c r="M30" t="n">
-        <v>376.1371707704756</v>
+        <v>376.1371707704757</v>
       </c>
       <c r="N30" t="n">
-        <v>386.0924024496873</v>
+        <v>386.0924024496875</v>
       </c>
       <c r="O30" t="n">
-        <v>353.1991189680802</v>
+        <v>353.1991189680803</v>
       </c>
       <c r="P30" t="n">
         <v>283.4734315562571</v>
@@ -33284,16 +33284,16 @@
         <v>189.4944818782054</v>
       </c>
       <c r="R30" t="n">
-        <v>92.16890755455869</v>
+        <v>92.16890755455871</v>
       </c>
       <c r="S30" t="n">
-        <v>27.57384314026248</v>
+        <v>27.57384314026249</v>
       </c>
       <c r="T30" t="n">
-        <v>5.983556516151411</v>
+        <v>5.983556516151413</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0976641433539404</v>
+        <v>0.09766414335394044</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.244550722958409</v>
+        <v>1.24455072295841</v>
       </c>
       <c r="H31" t="n">
         <v>11.06518733684841</v>
       </c>
       <c r="I31" t="n">
-        <v>37.42703446860381</v>
+        <v>37.42703446860382</v>
       </c>
       <c r="J31" t="n">
-        <v>87.98973611315954</v>
+        <v>87.98973611315957</v>
       </c>
       <c r="K31" t="n">
-        <v>144.5941658128042</v>
+        <v>144.5941658128043</v>
       </c>
       <c r="L31" t="n">
         <v>185.0307502114712</v>
       </c>
       <c r="M31" t="n">
-        <v>195.0889828724713</v>
+        <v>195.0889828724714</v>
       </c>
       <c r="N31" t="n">
         <v>190.4502029050811</v>
       </c>
       <c r="O31" t="n">
-        <v>175.9115876414305</v>
+        <v>175.9115876414306</v>
       </c>
       <c r="P31" t="n">
-        <v>150.5227528930788</v>
+        <v>150.5227528930789</v>
       </c>
       <c r="Q31" t="n">
-        <v>104.2141519015446</v>
+        <v>104.2141519015447</v>
       </c>
       <c r="R31" t="n">
-        <v>55.95952614320264</v>
+        <v>55.95952614320267</v>
       </c>
       <c r="S31" t="n">
-        <v>21.68912487192063</v>
+        <v>21.68912487192064</v>
       </c>
       <c r="T31" t="n">
-        <v>5.317625816276839</v>
+        <v>5.31762581627684</v>
       </c>
       <c r="U31" t="n">
-        <v>0.06788458488864059</v>
+        <v>0.0678845848886406</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33418,28 +33418,28 @@
         <v>106.964387265714</v>
       </c>
       <c r="J32" t="n">
-        <v>235.4832673287956</v>
+        <v>235.4832673287957</v>
       </c>
       <c r="K32" t="n">
-        <v>352.9283749860856</v>
+        <v>352.9283749860857</v>
       </c>
       <c r="L32" t="n">
-        <v>437.8388572319346</v>
+        <v>437.8388572319348</v>
       </c>
       <c r="M32" t="n">
-        <v>487.1800911865845</v>
+        <v>487.1800911865846</v>
       </c>
       <c r="N32" t="n">
-        <v>495.0631743930876</v>
+        <v>495.0631743930877</v>
       </c>
       <c r="O32" t="n">
         <v>467.4741172405439</v>
       </c>
       <c r="P32" t="n">
-        <v>398.9783436688607</v>
+        <v>398.9783436688608</v>
       </c>
       <c r="Q32" t="n">
-        <v>299.616120234495</v>
+        <v>299.6161202344951</v>
       </c>
       <c r="R32" t="n">
         <v>174.284461230268</v>
@@ -33451,7 +33451,7 @@
         <v>12.14542779990047</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2219609877765932</v>
+        <v>0.2219609877765933</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,7 +33494,7 @@
         <v>14.33709624435845</v>
       </c>
       <c r="I33" t="n">
-        <v>51.11090168856213</v>
+        <v>51.11090168856214</v>
       </c>
       <c r="J33" t="n">
         <v>140.2522207991487</v>
@@ -33506,13 +33506,13 @@
         <v>322.3242277824546</v>
       </c>
       <c r="M33" t="n">
-        <v>376.1371707704756</v>
+        <v>376.1371707704757</v>
       </c>
       <c r="N33" t="n">
-        <v>386.0924024496873</v>
+        <v>386.0924024496874</v>
       </c>
       <c r="O33" t="n">
-        <v>353.1991189680802</v>
+        <v>353.1991189680803</v>
       </c>
       <c r="P33" t="n">
         <v>283.4734315562571</v>
@@ -33521,7 +33521,7 @@
         <v>189.4944818782054</v>
       </c>
       <c r="R33" t="n">
-        <v>92.16890755455869</v>
+        <v>92.1689075545587</v>
       </c>
       <c r="S33" t="n">
         <v>27.57384314026248</v>
@@ -33530,7 +33530,7 @@
         <v>5.983556516151411</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0976641433539404</v>
+        <v>0.09766414335394043</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33576,16 +33576,16 @@
         <v>37.42703446860381</v>
       </c>
       <c r="J34" t="n">
-        <v>87.98973611315954</v>
+        <v>87.98973611315955</v>
       </c>
       <c r="K34" t="n">
-        <v>144.5941658128042</v>
+        <v>144.5941658128043</v>
       </c>
       <c r="L34" t="n">
         <v>185.0307502114712</v>
       </c>
       <c r="M34" t="n">
-        <v>195.0889828724713</v>
+        <v>195.0889828724714</v>
       </c>
       <c r="N34" t="n">
         <v>190.4502029050811</v>
@@ -33594,22 +33594,22 @@
         <v>175.9115876414305</v>
       </c>
       <c r="P34" t="n">
-        <v>150.5227528930788</v>
+        <v>150.5227528930789</v>
       </c>
       <c r="Q34" t="n">
         <v>104.2141519015446</v>
       </c>
       <c r="R34" t="n">
-        <v>55.95952614320264</v>
+        <v>55.95952614320265</v>
       </c>
       <c r="S34" t="n">
-        <v>21.68912487192063</v>
+        <v>21.68912487192064</v>
       </c>
       <c r="T34" t="n">
-        <v>5.317625816276839</v>
+        <v>5.31762581627684</v>
       </c>
       <c r="U34" t="n">
-        <v>0.06788458488864059</v>
+        <v>0.0678845848886406</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33655,28 +33655,28 @@
         <v>106.964387265714</v>
       </c>
       <c r="J35" t="n">
-        <v>235.4832673287956</v>
+        <v>235.4832673287957</v>
       </c>
       <c r="K35" t="n">
-        <v>352.9283749860856</v>
+        <v>352.9283749860857</v>
       </c>
       <c r="L35" t="n">
-        <v>437.8388572319346</v>
+        <v>437.8388572319348</v>
       </c>
       <c r="M35" t="n">
-        <v>487.1800911865845</v>
+        <v>487.1800911865846</v>
       </c>
       <c r="N35" t="n">
-        <v>495.0631743930876</v>
+        <v>495.0631743930877</v>
       </c>
       <c r="O35" t="n">
         <v>467.4741172405439</v>
       </c>
       <c r="P35" t="n">
-        <v>398.9783436688607</v>
+        <v>398.9783436688608</v>
       </c>
       <c r="Q35" t="n">
-        <v>299.616120234495</v>
+        <v>299.6161202344951</v>
       </c>
       <c r="R35" t="n">
         <v>174.284461230268</v>
@@ -33688,7 +33688,7 @@
         <v>12.14542779990047</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2219609877765932</v>
+        <v>0.2219609877765933</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,7 +33731,7 @@
         <v>14.33709624435845</v>
       </c>
       <c r="I36" t="n">
-        <v>51.11090168856213</v>
+        <v>51.11090168856214</v>
       </c>
       <c r="J36" t="n">
         <v>140.2522207991487</v>
@@ -33743,13 +33743,13 @@
         <v>322.3242277824546</v>
       </c>
       <c r="M36" t="n">
-        <v>376.1371707704756</v>
+        <v>376.1371707704757</v>
       </c>
       <c r="N36" t="n">
-        <v>386.0924024496873</v>
+        <v>386.0924024496874</v>
       </c>
       <c r="O36" t="n">
-        <v>353.1991189680802</v>
+        <v>353.1991189680803</v>
       </c>
       <c r="P36" t="n">
         <v>283.4734315562571</v>
@@ -33758,7 +33758,7 @@
         <v>189.4944818782054</v>
       </c>
       <c r="R36" t="n">
-        <v>92.16890755455869</v>
+        <v>92.1689075545587</v>
       </c>
       <c r="S36" t="n">
         <v>27.57384314026248</v>
@@ -33767,7 +33767,7 @@
         <v>5.983556516151411</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0976641433539404</v>
+        <v>0.09766414335394043</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33813,16 +33813,16 @@
         <v>37.42703446860381</v>
       </c>
       <c r="J37" t="n">
-        <v>87.98973611315954</v>
+        <v>87.98973611315955</v>
       </c>
       <c r="K37" t="n">
-        <v>144.5941658128042</v>
+        <v>144.5941658128043</v>
       </c>
       <c r="L37" t="n">
         <v>185.0307502114712</v>
       </c>
       <c r="M37" t="n">
-        <v>195.0889828724713</v>
+        <v>195.0889828724714</v>
       </c>
       <c r="N37" t="n">
         <v>190.4502029050811</v>
@@ -33831,22 +33831,22 @@
         <v>175.9115876414305</v>
       </c>
       <c r="P37" t="n">
-        <v>150.5227528930788</v>
+        <v>150.5227528930789</v>
       </c>
       <c r="Q37" t="n">
         <v>104.2141519015446</v>
       </c>
       <c r="R37" t="n">
-        <v>55.95952614320264</v>
+        <v>55.95952614320265</v>
       </c>
       <c r="S37" t="n">
-        <v>21.68912487192063</v>
+        <v>21.68912487192064</v>
       </c>
       <c r="T37" t="n">
-        <v>5.317625816276839</v>
+        <v>5.31762581627684</v>
       </c>
       <c r="U37" t="n">
-        <v>0.06788458488864059</v>
+        <v>0.0678845848886406</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33892,28 +33892,28 @@
         <v>106.964387265714</v>
       </c>
       <c r="J38" t="n">
-        <v>235.4832673287956</v>
+        <v>235.4832673287957</v>
       </c>
       <c r="K38" t="n">
-        <v>352.9283749860856</v>
+        <v>352.9283749860857</v>
       </c>
       <c r="L38" t="n">
-        <v>437.8388572319346</v>
+        <v>437.8388572319348</v>
       </c>
       <c r="M38" t="n">
-        <v>487.1800911865845</v>
+        <v>487.1800911865846</v>
       </c>
       <c r="N38" t="n">
-        <v>495.0631743930876</v>
+        <v>495.0631743930877</v>
       </c>
       <c r="O38" t="n">
         <v>467.4741172405439</v>
       </c>
       <c r="P38" t="n">
-        <v>398.9783436688607</v>
+        <v>398.9783436688608</v>
       </c>
       <c r="Q38" t="n">
-        <v>299.616120234495</v>
+        <v>299.6161202344951</v>
       </c>
       <c r="R38" t="n">
         <v>174.284461230268</v>
@@ -33925,7 +33925,7 @@
         <v>12.14542779990047</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2219609877765932</v>
+        <v>0.2219609877765933</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,7 +33968,7 @@
         <v>14.33709624435845</v>
       </c>
       <c r="I39" t="n">
-        <v>51.11090168856213</v>
+        <v>51.11090168856214</v>
       </c>
       <c r="J39" t="n">
         <v>140.2522207991487</v>
@@ -33980,13 +33980,13 @@
         <v>322.3242277824546</v>
       </c>
       <c r="M39" t="n">
-        <v>376.1371707704756</v>
+        <v>376.1371707704757</v>
       </c>
       <c r="N39" t="n">
-        <v>386.0924024496873</v>
+        <v>386.0924024496874</v>
       </c>
       <c r="O39" t="n">
-        <v>353.1991189680802</v>
+        <v>353.1991189680803</v>
       </c>
       <c r="P39" t="n">
         <v>283.4734315562571</v>
@@ -33995,7 +33995,7 @@
         <v>189.4944818782054</v>
       </c>
       <c r="R39" t="n">
-        <v>92.16890755455869</v>
+        <v>92.1689075545587</v>
       </c>
       <c r="S39" t="n">
         <v>27.57384314026248</v>
@@ -34004,7 +34004,7 @@
         <v>5.983556516151411</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0976641433539404</v>
+        <v>0.09766414335394043</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34050,16 +34050,16 @@
         <v>37.42703446860381</v>
       </c>
       <c r="J40" t="n">
-        <v>87.98973611315954</v>
+        <v>87.98973611315955</v>
       </c>
       <c r="K40" t="n">
-        <v>144.5941658128042</v>
+        <v>144.5941658128043</v>
       </c>
       <c r="L40" t="n">
         <v>185.0307502114712</v>
       </c>
       <c r="M40" t="n">
-        <v>195.0889828724713</v>
+        <v>195.0889828724714</v>
       </c>
       <c r="N40" t="n">
         <v>190.4502029050811</v>
@@ -34068,22 +34068,22 @@
         <v>175.9115876414305</v>
       </c>
       <c r="P40" t="n">
-        <v>150.5227528930788</v>
+        <v>150.5227528930789</v>
       </c>
       <c r="Q40" t="n">
         <v>104.2141519015446</v>
       </c>
       <c r="R40" t="n">
-        <v>55.95952614320264</v>
+        <v>55.95952614320265</v>
       </c>
       <c r="S40" t="n">
-        <v>21.68912487192063</v>
+        <v>21.68912487192064</v>
       </c>
       <c r="T40" t="n">
-        <v>5.317625816276839</v>
+        <v>5.31762581627684</v>
       </c>
       <c r="U40" t="n">
-        <v>0.06788458488864059</v>
+        <v>0.0678845848886406</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34129,28 +34129,28 @@
         <v>106.964387265714</v>
       </c>
       <c r="J41" t="n">
-        <v>235.4832673287956</v>
+        <v>235.4832673287957</v>
       </c>
       <c r="K41" t="n">
-        <v>352.9283749860856</v>
+        <v>352.9283749860857</v>
       </c>
       <c r="L41" t="n">
-        <v>437.8388572319346</v>
+        <v>437.8388572319348</v>
       </c>
       <c r="M41" t="n">
-        <v>487.1800911865845</v>
+        <v>487.1800911865846</v>
       </c>
       <c r="N41" t="n">
-        <v>495.0631743930876</v>
+        <v>495.0631743930877</v>
       </c>
       <c r="O41" t="n">
         <v>467.4741172405439</v>
       </c>
       <c r="P41" t="n">
-        <v>398.9783436688607</v>
+        <v>398.9783436688608</v>
       </c>
       <c r="Q41" t="n">
-        <v>299.616120234495</v>
+        <v>299.6161202344951</v>
       </c>
       <c r="R41" t="n">
         <v>174.284461230268</v>
@@ -34162,7 +34162,7 @@
         <v>12.14542779990047</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2219609877765932</v>
+        <v>0.2219609877765933</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,7 +34205,7 @@
         <v>14.33709624435845</v>
       </c>
       <c r="I42" t="n">
-        <v>51.11090168856213</v>
+        <v>51.11090168856214</v>
       </c>
       <c r="J42" t="n">
         <v>140.2522207991487</v>
@@ -34217,13 +34217,13 @@
         <v>322.3242277824546</v>
       </c>
       <c r="M42" t="n">
-        <v>376.1371707704756</v>
+        <v>376.1371707704757</v>
       </c>
       <c r="N42" t="n">
-        <v>386.0924024496873</v>
+        <v>386.0924024496874</v>
       </c>
       <c r="O42" t="n">
-        <v>353.1991189680802</v>
+        <v>353.1991189680803</v>
       </c>
       <c r="P42" t="n">
         <v>283.4734315562571</v>
@@ -34232,7 +34232,7 @@
         <v>189.4944818782054</v>
       </c>
       <c r="R42" t="n">
-        <v>92.16890755455869</v>
+        <v>92.1689075545587</v>
       </c>
       <c r="S42" t="n">
         <v>27.57384314026248</v>
@@ -34241,7 +34241,7 @@
         <v>5.983556516151411</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0976641433539404</v>
+        <v>0.09766414335394043</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34287,16 +34287,16 @@
         <v>37.42703446860381</v>
       </c>
       <c r="J43" t="n">
-        <v>87.98973611315954</v>
+        <v>87.98973611315955</v>
       </c>
       <c r="K43" t="n">
-        <v>144.5941658128042</v>
+        <v>144.5941658128043</v>
       </c>
       <c r="L43" t="n">
         <v>185.0307502114712</v>
       </c>
       <c r="M43" t="n">
-        <v>195.0889828724713</v>
+        <v>195.0889828724714</v>
       </c>
       <c r="N43" t="n">
         <v>190.4502029050811</v>
@@ -34305,22 +34305,22 @@
         <v>175.9115876414305</v>
       </c>
       <c r="P43" t="n">
-        <v>150.5227528930788</v>
+        <v>150.5227528930789</v>
       </c>
       <c r="Q43" t="n">
         <v>104.2141519015446</v>
       </c>
       <c r="R43" t="n">
-        <v>55.95952614320264</v>
+        <v>55.95952614320265</v>
       </c>
       <c r="S43" t="n">
-        <v>21.68912487192063</v>
+        <v>21.68912487192064</v>
       </c>
       <c r="T43" t="n">
-        <v>5.317625816276839</v>
+        <v>5.31762581627684</v>
       </c>
       <c r="U43" t="n">
-        <v>0.06788458488864059</v>
+        <v>0.0678845848886406</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.774512347207416</v>
+        <v>2.774512347207418</v>
       </c>
       <c r="H44" t="n">
-        <v>28.41447457583796</v>
+        <v>28.41447457583797</v>
       </c>
       <c r="I44" t="n">
-        <v>106.964387265714</v>
+        <v>106.9643872657141</v>
       </c>
       <c r="J44" t="n">
-        <v>235.4832673287956</v>
+        <v>235.4832673287958</v>
       </c>
       <c r="K44" t="n">
-        <v>352.9283749860856</v>
+        <v>352.9283749860858</v>
       </c>
       <c r="L44" t="n">
-        <v>437.8388572319346</v>
+        <v>437.838857231935</v>
       </c>
       <c r="M44" t="n">
-        <v>487.1800911865845</v>
+        <v>487.1800911865848</v>
       </c>
       <c r="N44" t="n">
-        <v>495.0631743930876</v>
+        <v>495.063174393088</v>
       </c>
       <c r="O44" t="n">
-        <v>467.4741172405439</v>
+        <v>467.4741172405442</v>
       </c>
       <c r="P44" t="n">
-        <v>398.9783436688607</v>
+        <v>398.978343668861</v>
       </c>
       <c r="Q44" t="n">
-        <v>299.616120234495</v>
+        <v>299.6161202344953</v>
       </c>
       <c r="R44" t="n">
-        <v>174.284461230268</v>
+        <v>174.2844612302681</v>
       </c>
       <c r="S44" t="n">
-        <v>63.22420011198906</v>
+        <v>63.2242001119891</v>
       </c>
       <c r="T44" t="n">
-        <v>12.14542779990047</v>
+        <v>12.14542779990048</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2219609877765932</v>
+        <v>0.2219609877765934</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34439,46 +34439,46 @@
         <v>1.484494978979894</v>
       </c>
       <c r="H45" t="n">
-        <v>14.33709624435845</v>
+        <v>14.33709624435846</v>
       </c>
       <c r="I45" t="n">
-        <v>51.11090168856213</v>
+        <v>51.11090168856217</v>
       </c>
       <c r="J45" t="n">
         <v>140.2522207991487</v>
       </c>
       <c r="K45" t="n">
-        <v>239.7133843908015</v>
+        <v>239.7133843908017</v>
       </c>
       <c r="L45" t="n">
-        <v>322.3242277824546</v>
+        <v>322.3242277824548</v>
       </c>
       <c r="M45" t="n">
-        <v>376.1371707704756</v>
+        <v>376.1371707704758</v>
       </c>
       <c r="N45" t="n">
-        <v>386.0924024496873</v>
+        <v>386.0924024496876</v>
       </c>
       <c r="O45" t="n">
-        <v>353.1991189680802</v>
+        <v>353.1991189680804</v>
       </c>
       <c r="P45" t="n">
-        <v>283.4734315562571</v>
+        <v>283.4734315562573</v>
       </c>
       <c r="Q45" t="n">
-        <v>189.4944818782054</v>
+        <v>189.4944818782055</v>
       </c>
       <c r="R45" t="n">
-        <v>92.16890755455869</v>
+        <v>92.16890755455876</v>
       </c>
       <c r="S45" t="n">
-        <v>27.57384314026248</v>
+        <v>27.5738431402625</v>
       </c>
       <c r="T45" t="n">
-        <v>5.983556516151411</v>
+        <v>5.983556516151415</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0976641433539404</v>
+        <v>0.09766414335394047</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.244550722958409</v>
+        <v>1.24455072295841</v>
       </c>
       <c r="H46" t="n">
-        <v>11.06518733684841</v>
+        <v>11.06518733684842</v>
       </c>
       <c r="I46" t="n">
-        <v>37.42703446860381</v>
+        <v>37.42703446860384</v>
       </c>
       <c r="J46" t="n">
-        <v>87.98973611315954</v>
+        <v>87.98973611315959</v>
       </c>
       <c r="K46" t="n">
-        <v>144.5941658128042</v>
+        <v>144.5941658128043</v>
       </c>
       <c r="L46" t="n">
-        <v>185.0307502114712</v>
+        <v>185.0307502114713</v>
       </c>
       <c r="M46" t="n">
-        <v>195.0889828724713</v>
+        <v>195.0889828724715</v>
       </c>
       <c r="N46" t="n">
-        <v>190.4502029050811</v>
+        <v>190.4502029050812</v>
       </c>
       <c r="O46" t="n">
-        <v>175.9115876414305</v>
+        <v>175.9115876414306</v>
       </c>
       <c r="P46" t="n">
-        <v>150.5227528930788</v>
+        <v>150.5227528930789</v>
       </c>
       <c r="Q46" t="n">
-        <v>104.2141519015446</v>
+        <v>104.2141519015447</v>
       </c>
       <c r="R46" t="n">
-        <v>55.95952614320264</v>
+        <v>55.95952614320268</v>
       </c>
       <c r="S46" t="n">
-        <v>21.68912487192063</v>
+        <v>21.68912487192065</v>
       </c>
       <c r="T46" t="n">
-        <v>5.317625816276839</v>
+        <v>5.317625816276842</v>
       </c>
       <c r="U46" t="n">
-        <v>0.06788458488864059</v>
+        <v>0.06788458488864063</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>54.43736280210933</v>
+        <v>54.43736280210939</v>
       </c>
       <c r="K11" t="n">
         <v>132.8385239411051</v>
       </c>
       <c r="L11" t="n">
-        <v>202.0724422619474</v>
+        <v>202.0724422619475</v>
       </c>
       <c r="M11" t="n">
-        <v>256.8338579593118</v>
+        <v>256.8338579593119</v>
       </c>
       <c r="N11" t="n">
-        <v>265.6501107964967</v>
+        <v>455.0290650249123</v>
       </c>
       <c r="O11" t="n">
-        <v>237.3759058188571</v>
+        <v>431.0488738192286</v>
       </c>
       <c r="P11" t="n">
-        <v>455.0290650249123</v>
+        <v>167.7453479135913</v>
       </c>
       <c r="Q11" t="n">
-        <v>173.0786354775119</v>
+        <v>77.31043036004561</v>
       </c>
       <c r="R11" t="n">
-        <v>24.41534328911831</v>
+        <v>24.41534328911834</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,13 +35495,13 @@
         <v>183.7698480025804</v>
       </c>
       <c r="M12" t="n">
-        <v>234.0031368484573</v>
+        <v>234.0031368484574</v>
       </c>
       <c r="N12" t="n">
-        <v>254.750690366354</v>
+        <v>254.7506903663541</v>
       </c>
       <c r="O12" t="n">
-        <v>299.3019720521083</v>
+        <v>299.3019720521082</v>
       </c>
       <c r="P12" t="n">
         <v>455.0290650249123</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>74.19928980076928</v>
+        <v>74.19928980076931</v>
       </c>
       <c r="K13" t="n">
-        <v>201.8934077912039</v>
+        <v>201.893407791204</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1895092760698</v>
+        <v>292.1895092760699</v>
       </c>
       <c r="M13" t="n">
         <v>314.2415936385945</v>
@@ -35583,10 +35583,10 @@
         <v>280.0654493597527</v>
       </c>
       <c r="P13" t="n">
-        <v>227.3700459622548</v>
+        <v>227.3700459622549</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.62084245413276</v>
+        <v>97.62084245413278</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>54.43736280210933</v>
+        <v>54.43736280210939</v>
       </c>
       <c r="K14" t="n">
         <v>132.8385239411051</v>
       </c>
       <c r="L14" t="n">
-        <v>202.0724422619474</v>
+        <v>619.733656812398</v>
       </c>
       <c r="M14" t="n">
-        <v>256.8338579593118</v>
+        <v>625.6204180233016</v>
       </c>
       <c r="N14" t="n">
-        <v>409.2609850055806</v>
+        <v>265.6501107964968</v>
       </c>
       <c r="O14" t="n">
-        <v>618.1760870816025</v>
+        <v>237.3759058188572</v>
       </c>
       <c r="P14" t="n">
-        <v>489.5440560850738</v>
+        <v>227.5073369424632</v>
       </c>
       <c r="Q14" t="n">
-        <v>289.6254210199502</v>
+        <v>289.6254210199503</v>
       </c>
       <c r="R14" t="n">
-        <v>24.41534328911831</v>
+        <v>24.41534328911834</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,16 +35732,16 @@
         <v>183.7698480025804</v>
       </c>
       <c r="M15" t="n">
-        <v>625.6204180233013</v>
+        <v>234.0031368484574</v>
       </c>
       <c r="N15" t="n">
-        <v>254.750690366354</v>
+        <v>612.1275729355756</v>
       </c>
       <c r="O15" t="n">
         <v>604.4651938003653</v>
       </c>
       <c r="P15" t="n">
-        <v>433.7213941762408</v>
+        <v>467.9617927818641</v>
       </c>
       <c r="Q15" t="n">
         <v>259.589995528033</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>74.19928980076929</v>
+        <v>74.19928980076931</v>
       </c>
       <c r="K16" t="n">
-        <v>201.8934077912039</v>
+        <v>201.893407791204</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1895092760698</v>
+        <v>292.1895092760699</v>
       </c>
       <c r="M16" t="n">
         <v>314.2415936385945</v>
@@ -35820,10 +35820,10 @@
         <v>280.0654493597527</v>
       </c>
       <c r="P16" t="n">
-        <v>227.3700459622548</v>
+        <v>227.3700459622549</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.62084245413277</v>
+        <v>97.62084245413278</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>54.43736280210933</v>
+        <v>54.43736280210939</v>
       </c>
       <c r="K17" t="n">
         <v>132.8385239411051</v>
       </c>
       <c r="L17" t="n">
-        <v>357.6969376697871</v>
+        <v>619.733656812398</v>
       </c>
       <c r="M17" t="n">
-        <v>625.6204180233013</v>
+        <v>256.8338579593119</v>
       </c>
       <c r="N17" t="n">
-        <v>265.6501107964967</v>
+        <v>265.6501107964968</v>
       </c>
       <c r="O17" t="n">
-        <v>237.3759058188571</v>
+        <v>618.1760870816025</v>
       </c>
       <c r="P17" t="n">
-        <v>489.5440560850738</v>
+        <v>427.8087064036127</v>
       </c>
       <c r="Q17" t="n">
-        <v>289.6254210199502</v>
+        <v>77.31043036004561</v>
       </c>
       <c r="R17" t="n">
-        <v>24.41534328911831</v>
+        <v>24.41534328911834</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,16 +35969,16 @@
         <v>183.7698480025804</v>
       </c>
       <c r="M18" t="n">
-        <v>234.0031368484573</v>
+        <v>234.0031368484574</v>
       </c>
       <c r="N18" t="n">
-        <v>612.1275729355748</v>
+        <v>625.6204180233016</v>
       </c>
       <c r="O18" t="n">
-        <v>604.4651938003653</v>
+        <v>590.9723487126392</v>
       </c>
       <c r="P18" t="n">
-        <v>467.961792781864</v>
+        <v>467.9617927818641</v>
       </c>
       <c r="Q18" t="n">
         <v>259.589995528033</v>
@@ -36048,7 +36048,7 @@
         <v>212.6207754717873</v>
       </c>
       <c r="M19" t="n">
-        <v>234.6728598343119</v>
+        <v>234.672859834312</v>
       </c>
       <c r="N19" t="n">
         <v>234.5823752843097</v>
@@ -36060,7 +36060,7 @@
         <v>147.8013121579723</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.05210864985024</v>
+        <v>18.05210864985025</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>54.43736280210933</v>
+        <v>223.5339779741832</v>
       </c>
       <c r="K20" t="n">
-        <v>132.8385239411051</v>
+        <v>456.9839365122698</v>
       </c>
       <c r="L20" t="n">
-        <v>202.0724422619474</v>
+        <v>202.0724422619475</v>
       </c>
       <c r="M20" t="n">
-        <v>256.8338579593118</v>
+        <v>625.6204180233016</v>
       </c>
       <c r="N20" t="n">
-        <v>409.2609850055806</v>
+        <v>265.6501107964968</v>
       </c>
       <c r="O20" t="n">
-        <v>618.1760870816025</v>
+        <v>458.2874156039645</v>
       </c>
       <c r="P20" t="n">
-        <v>489.5440560850738</v>
+        <v>167.7453479135913</v>
       </c>
       <c r="Q20" t="n">
-        <v>289.6254210199502</v>
+        <v>77.31043036004561</v>
       </c>
       <c r="R20" t="n">
-        <v>24.41534328911831</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,16 +36206,16 @@
         <v>183.7698480025804</v>
       </c>
       <c r="M21" t="n">
-        <v>234.0031368484573</v>
+        <v>234.0031368484574</v>
       </c>
       <c r="N21" t="n">
-        <v>612.1275729355748</v>
+        <v>625.6204180233016</v>
       </c>
       <c r="O21" t="n">
         <v>604.4651938003653</v>
       </c>
       <c r="P21" t="n">
-        <v>467.961792781864</v>
+        <v>454.468947694138</v>
       </c>
       <c r="Q21" t="n">
         <v>259.589995528033</v>
@@ -36285,7 +36285,7 @@
         <v>212.6207754717873</v>
       </c>
       <c r="M22" t="n">
-        <v>234.6728598343119</v>
+        <v>234.672859834312</v>
       </c>
       <c r="N22" t="n">
         <v>234.5823752843097</v>
@@ -36297,7 +36297,7 @@
         <v>147.8013121579723</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.05210864985024</v>
+        <v>18.05210864985025</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>54.43736280210933</v>
+        <v>54.43736280210939</v>
       </c>
       <c r="K23" t="n">
-        <v>132.8385239411051</v>
+        <v>456.9839365122698</v>
       </c>
       <c r="L23" t="n">
-        <v>202.0724422619474</v>
+        <v>202.0724422619475</v>
       </c>
       <c r="M23" t="n">
-        <v>256.8338579593118</v>
+        <v>629.0800981426553</v>
       </c>
       <c r="N23" t="n">
-        <v>422.9599204276703</v>
+        <v>265.6501107964968</v>
       </c>
       <c r="O23" t="n">
         <v>618.1760870816025</v>
       </c>
       <c r="P23" t="n">
-        <v>489.5440560850738</v>
+        <v>187.1925469107603</v>
       </c>
       <c r="Q23" t="n">
-        <v>289.6254210199502</v>
+        <v>77.31043036004561</v>
       </c>
       <c r="R23" t="n">
-        <v>24.41534328911831</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>13.41459413248197</v>
+        <v>139.5056294728908</v>
       </c>
       <c r="K24" t="n">
         <v>101.8719454164425</v>
       </c>
       <c r="L24" t="n">
-        <v>183.7698480025804</v>
+        <v>554.6101933060396</v>
       </c>
       <c r="M24" t="n">
-        <v>234.0031368484573</v>
+        <v>629.0800981426553</v>
       </c>
       <c r="N24" t="n">
-        <v>625.8265083576641</v>
+        <v>254.7506903663541</v>
       </c>
       <c r="O24" t="n">
-        <v>604.4651938003653</v>
+        <v>293.6099575894571</v>
       </c>
       <c r="P24" t="n">
-        <v>467.961792781864</v>
+        <v>467.9617927818641</v>
       </c>
       <c r="Q24" t="n">
-        <v>259.589995528033</v>
+        <v>49.5127077921839</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36522,7 +36522,7 @@
         <v>212.6207754717873</v>
       </c>
       <c r="M25" t="n">
-        <v>234.6728598343119</v>
+        <v>234.672859834312</v>
       </c>
       <c r="N25" t="n">
         <v>234.5823752843097</v>
@@ -36534,7 +36534,7 @@
         <v>147.8013121579723</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.05210864985024</v>
+        <v>18.05210864985025</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>54.43736280210933</v>
+        <v>223.5339779741832</v>
       </c>
       <c r="K26" t="n">
-        <v>133.0232978133228</v>
+        <v>456.9839365122698</v>
       </c>
       <c r="L26" t="n">
-        <v>619.7336568123978</v>
+        <v>619.733656812398</v>
       </c>
       <c r="M26" t="n">
-        <v>706.3473914521443</v>
+        <v>706.3473914521444</v>
       </c>
       <c r="N26" t="n">
-        <v>702.9970352084808</v>
+        <v>446.6701152864829</v>
       </c>
       <c r="O26" t="n">
         <v>618.1760870816025</v>
       </c>
       <c r="P26" t="n">
-        <v>489.5440560850738</v>
+        <v>489.5440560850739</v>
       </c>
       <c r="Q26" t="n">
-        <v>289.6254210199502</v>
+        <v>77.31043036004561</v>
       </c>
       <c r="R26" t="n">
-        <v>24.41534328911831</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>13.41459413248197</v>
+        <v>139.5056294728908</v>
       </c>
       <c r="K27" t="n">
-        <v>101.8719454164425</v>
+        <v>366.3371824290211</v>
       </c>
       <c r="L27" t="n">
         <v>183.7698480025804</v>
       </c>
       <c r="M27" t="n">
-        <v>234.0031368484573</v>
+        <v>537.4803919663194</v>
       </c>
       <c r="N27" t="n">
-        <v>715.8015042640905</v>
+        <v>734.0930647099076</v>
       </c>
       <c r="O27" t="n">
-        <v>604.4651938003653</v>
+        <v>210.6028745236358</v>
       </c>
       <c r="P27" t="n">
-        <v>467.961792781864</v>
+        <v>149.4990241419269</v>
       </c>
       <c r="Q27" t="n">
         <v>259.589995528033</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>74.19928980076929</v>
+        <v>74.19928980076932</v>
       </c>
       <c r="K28" t="n">
-        <v>201.8934077912039</v>
+        <v>201.893407791204</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1895092760698</v>
+        <v>292.1895092760699</v>
       </c>
       <c r="M28" t="n">
         <v>314.2415936385945</v>
@@ -36768,10 +36768,10 @@
         <v>280.0654493597527</v>
       </c>
       <c r="P28" t="n">
-        <v>227.3700459622548</v>
+        <v>227.3700459622545</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.62084245413277</v>
+        <v>97.6208424541328</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>54.43736280210933</v>
+        <v>54.43736280210942</v>
       </c>
       <c r="K29" t="n">
-        <v>456.9839365122698</v>
+        <v>456.9839365122699</v>
       </c>
       <c r="L29" t="n">
-        <v>295.7730181134509</v>
+        <v>619.7336568123981</v>
       </c>
       <c r="M29" t="n">
-        <v>706.3473914521443</v>
+        <v>706.3473914521444</v>
       </c>
       <c r="N29" t="n">
-        <v>702.9970352084808</v>
+        <v>702.9970352084811</v>
       </c>
       <c r="O29" t="n">
-        <v>618.1760870816025</v>
+        <v>618.1760870816026</v>
       </c>
       <c r="P29" t="n">
-        <v>489.5440560850738</v>
+        <v>377.8984080460305</v>
       </c>
       <c r="Q29" t="n">
-        <v>289.6254210199502</v>
+        <v>77.31043036004567</v>
       </c>
       <c r="R29" t="n">
-        <v>24.41534328911831</v>
+        <v>24.41534328911837</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>13.41459413248197</v>
+        <v>139.5056294728908</v>
       </c>
       <c r="K30" t="n">
-        <v>101.8719454164425</v>
+        <v>364.9889795004991</v>
       </c>
       <c r="L30" t="n">
-        <v>183.7698480025804</v>
+        <v>183.7698480025805</v>
       </c>
       <c r="M30" t="n">
-        <v>234.0031368484573</v>
+        <v>699.7082005984573</v>
       </c>
       <c r="N30" t="n">
-        <v>715.8015042640905</v>
+        <v>254.7506903663542</v>
       </c>
       <c r="O30" t="n">
-        <v>604.4651938003653</v>
+        <v>210.6028745236359</v>
       </c>
       <c r="P30" t="n">
-        <v>467.961792781864</v>
+        <v>467.9617927818641</v>
       </c>
       <c r="Q30" t="n">
         <v>259.589995528033</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>74.19928980076929</v>
+        <v>74.19928980076934</v>
       </c>
       <c r="K31" t="n">
-        <v>201.8934077912039</v>
+        <v>201.893407791204</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1895092760698</v>
+        <v>292.1895092760699</v>
       </c>
       <c r="M31" t="n">
         <v>314.2415936385945</v>
       </c>
       <c r="N31" t="n">
-        <v>314.1511090885922</v>
+        <v>314.1511090885923</v>
       </c>
       <c r="O31" t="n">
-        <v>280.0654493597527</v>
+        <v>280.0654493597528</v>
       </c>
       <c r="P31" t="n">
-        <v>227.3700459622548</v>
+        <v>227.3700459622549</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.62084245413277</v>
+        <v>97.62084245413283</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>54.62213667432708</v>
+        <v>54.6221366743277</v>
       </c>
       <c r="K32" t="n">
         <v>132.8385239411051</v>
       </c>
       <c r="L32" t="n">
-        <v>619.7336568123978</v>
+        <v>619.733656812398</v>
       </c>
       <c r="M32" t="n">
-        <v>706.3473914521443</v>
+        <v>706.3473914521444</v>
       </c>
       <c r="N32" t="n">
-        <v>702.9970352084808</v>
+        <v>702.997035208481</v>
       </c>
       <c r="O32" t="n">
         <v>618.1760870816025</v>
       </c>
       <c r="P32" t="n">
-        <v>489.5440560850738</v>
+        <v>489.5440560850739</v>
       </c>
       <c r="Q32" t="n">
-        <v>289.6254210199502</v>
+        <v>289.6254210199503</v>
       </c>
       <c r="R32" t="n">
-        <v>24.41534328911831</v>
+        <v>24.41534328911834</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>13.41459413248197</v>
       </c>
       <c r="K33" t="n">
-        <v>101.8719454164425</v>
+        <v>366.3371824290211</v>
       </c>
       <c r="L33" t="n">
         <v>183.7698480025804</v>
       </c>
       <c r="M33" t="n">
-        <v>234.0031368484573</v>
+        <v>699.7082005984573</v>
       </c>
       <c r="N33" t="n">
-        <v>715.8015042640905</v>
+        <v>514.1712598772974</v>
       </c>
       <c r="O33" t="n">
         <v>604.4651938003653</v>
       </c>
       <c r="P33" t="n">
-        <v>467.961792781864</v>
+        <v>149.4990241419269</v>
       </c>
       <c r="Q33" t="n">
-        <v>259.589995528033</v>
+        <v>49.5127077921839</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>74.19928980076929</v>
+        <v>74.19928980076926</v>
       </c>
       <c r="K34" t="n">
         <v>201.8934077912039</v>
@@ -37245,7 +37245,7 @@
         <v>227.3700459622548</v>
       </c>
       <c r="Q34" t="n">
-        <v>97.62084245413277</v>
+        <v>97.62084245413274</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>54.43736280210933</v>
+        <v>223.5339779741832</v>
       </c>
       <c r="K35" t="n">
-        <v>132.8385239411051</v>
+        <v>456.9839365122698</v>
       </c>
       <c r="L35" t="n">
-        <v>202.0724422619474</v>
+        <v>202.0724422619475</v>
       </c>
       <c r="M35" t="n">
-        <v>256.8338579593118</v>
+        <v>444.0780173419386</v>
       </c>
       <c r="N35" t="n">
-        <v>599.9222464617623</v>
+        <v>265.6501107964968</v>
       </c>
       <c r="O35" t="n">
         <v>618.1760870816025</v>
       </c>
       <c r="P35" t="n">
-        <v>489.5440560850738</v>
+        <v>167.7453479135913</v>
       </c>
       <c r="Q35" t="n">
-        <v>289.6254210199502</v>
+        <v>289.6254210199503</v>
       </c>
       <c r="R35" t="n">
-        <v>24.41534328911831</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>13.41459413248197</v>
+        <v>139.5056294728908</v>
       </c>
       <c r="K36" t="n">
-        <v>101.8719454164425</v>
+        <v>154.7624577381867</v>
       </c>
       <c r="L36" t="n">
-        <v>183.7698480025804</v>
+        <v>554.6101933060396</v>
       </c>
       <c r="M36" t="n">
-        <v>276.0325269561799</v>
+        <v>673.7721141563675</v>
       </c>
       <c r="N36" t="n">
-        <v>673.7721141563676</v>
+        <v>254.7506903663541</v>
       </c>
       <c r="O36" t="n">
         <v>604.4651938003653</v>
       </c>
       <c r="P36" t="n">
-        <v>467.961792781864</v>
+        <v>149.4990241419269</v>
       </c>
       <c r="Q36" t="n">
-        <v>259.589995528033</v>
+        <v>49.5127077921839</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37470,7 +37470,7 @@
         <v>212.6207754717873</v>
       </c>
       <c r="M37" t="n">
-        <v>234.6728598343119</v>
+        <v>234.672859834312</v>
       </c>
       <c r="N37" t="n">
         <v>234.5823752843097</v>
@@ -37482,7 +37482,7 @@
         <v>147.8013121579723</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.05210864985024</v>
+        <v>18.05210864985025</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>54.43736280210933</v>
+        <v>208.5015762193419</v>
       </c>
       <c r="K38" t="n">
         <v>132.8385239411051</v>
       </c>
       <c r="L38" t="n">
-        <v>202.0724422619474</v>
+        <v>202.0724422619475</v>
       </c>
       <c r="M38" t="n">
-        <v>256.8338579593118</v>
+        <v>673.7721141563677</v>
       </c>
       <c r="N38" t="n">
-        <v>599.9222464617613</v>
+        <v>265.6501107964968</v>
       </c>
       <c r="O38" t="n">
         <v>618.1760870816025</v>
       </c>
       <c r="P38" t="n">
-        <v>489.5440560850738</v>
+        <v>489.5440560850739</v>
       </c>
       <c r="Q38" t="n">
-        <v>289.6254210199502</v>
+        <v>77.31043036004561</v>
       </c>
       <c r="R38" t="n">
-        <v>24.41534328911831</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>13.41459413248197</v>
       </c>
       <c r="K39" t="n">
-        <v>101.8719454164425</v>
+        <v>366.3371824290211</v>
       </c>
       <c r="L39" t="n">
-        <v>183.7698480025804</v>
+        <v>469.1265039556137</v>
       </c>
       <c r="M39" t="n">
-        <v>276.0325269561803</v>
+        <v>673.7721141563677</v>
       </c>
       <c r="N39" t="n">
-        <v>673.7721141563673</v>
+        <v>254.7506903663541</v>
       </c>
       <c r="O39" t="n">
         <v>604.4651938003653</v>
       </c>
       <c r="P39" t="n">
-        <v>467.961792781864</v>
+        <v>149.4990241419269</v>
       </c>
       <c r="Q39" t="n">
-        <v>259.589995528033</v>
+        <v>49.5127077921839</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37707,7 +37707,7 @@
         <v>212.6207754717873</v>
       </c>
       <c r="M40" t="n">
-        <v>234.6728598343119</v>
+        <v>234.672859834312</v>
       </c>
       <c r="N40" t="n">
         <v>234.5823752843097</v>
@@ -37719,7 +37719,7 @@
         <v>147.8013121579723</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.05210864985024</v>
+        <v>18.05210864985025</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>54.43736280210933</v>
+        <v>54.43736280210939</v>
       </c>
       <c r="K41" t="n">
         <v>132.8385239411051</v>
       </c>
       <c r="L41" t="n">
-        <v>202.0724422619474</v>
+        <v>202.0724422619475</v>
       </c>
       <c r="M41" t="n">
-        <v>256.8338579593118</v>
+        <v>591.1059936245766</v>
       </c>
       <c r="N41" t="n">
-        <v>673.7721141563675</v>
+        <v>265.6501107964968</v>
       </c>
       <c r="O41" t="n">
-        <v>544.3262193869973</v>
+        <v>618.1760870816025</v>
       </c>
       <c r="P41" t="n">
-        <v>489.5440560850738</v>
+        <v>489.5440560850739</v>
       </c>
       <c r="Q41" t="n">
-        <v>289.6254210199502</v>
+        <v>289.6254210199503</v>
       </c>
       <c r="R41" t="n">
-        <v>24.41534328911831</v>
+        <v>24.41534328911834</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>13.41459413248197</v>
       </c>
       <c r="K42" t="n">
-        <v>101.8719454164425</v>
+        <v>366.3371824290211</v>
       </c>
       <c r="L42" t="n">
         <v>183.7698480025804</v>
       </c>
       <c r="M42" t="n">
-        <v>276.03252695618</v>
+        <v>640.6660014694639</v>
       </c>
       <c r="N42" t="n">
-        <v>673.7721141563675</v>
+        <v>254.7506903663541</v>
       </c>
       <c r="O42" t="n">
         <v>604.4651938003653</v>
       </c>
       <c r="P42" t="n">
-        <v>467.961792781864</v>
+        <v>467.9617927818641</v>
       </c>
       <c r="Q42" t="n">
-        <v>259.589995528033</v>
+        <v>49.5127077921839</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37944,7 +37944,7 @@
         <v>212.6207754717873</v>
       </c>
       <c r="M43" t="n">
-        <v>234.6728598343119</v>
+        <v>234.672859834312</v>
       </c>
       <c r="N43" t="n">
         <v>234.5823752843097</v>
@@ -37956,7 +37956,7 @@
         <v>147.8013121579723</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.05210864985024</v>
+        <v>18.05210864985025</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>54.43736280210933</v>
+        <v>54.4373628021095</v>
       </c>
       <c r="K44" t="n">
-        <v>132.8385239411051</v>
+        <v>132.8385239411053</v>
       </c>
       <c r="L44" t="n">
-        <v>202.0724422619474</v>
+        <v>202.0724422619477</v>
       </c>
       <c r="M44" t="n">
-        <v>256.8338579593118</v>
+        <v>256.8338579593121</v>
       </c>
       <c r="N44" t="n">
-        <v>599.9222464617623</v>
+        <v>673.7721141563676</v>
       </c>
       <c r="O44" t="n">
-        <v>618.1760870816025</v>
+        <v>618.1760870816028</v>
       </c>
       <c r="P44" t="n">
-        <v>489.5440560850738</v>
+        <v>489.5440560850741</v>
       </c>
       <c r="Q44" t="n">
-        <v>289.6254210199502</v>
+        <v>215.7755533253436</v>
       </c>
       <c r="R44" t="n">
-        <v>24.41534328911831</v>
+        <v>24.41534328911843</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>13.41459413248197</v>
+        <v>139.5056294728909</v>
       </c>
       <c r="K45" t="n">
-        <v>101.8719454164425</v>
+        <v>366.3371824290213</v>
       </c>
       <c r="L45" t="n">
-        <v>183.7698480025804</v>
+        <v>183.7698480025806</v>
       </c>
       <c r="M45" t="n">
-        <v>276.03252695618</v>
+        <v>673.7721141563676</v>
       </c>
       <c r="N45" t="n">
-        <v>673.7721141563675</v>
+        <v>254.7506903663543</v>
       </c>
       <c r="O45" t="n">
-        <v>604.4651938003653</v>
+        <v>604.4651938003656</v>
       </c>
       <c r="P45" t="n">
-        <v>467.961792781864</v>
+        <v>149.499024141927</v>
       </c>
       <c r="Q45" t="n">
-        <v>259.589995528033</v>
+        <v>208.7783284048075</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>122.3246739869214</v>
+        <v>122.3246739869215</v>
       </c>
       <c r="L46" t="n">
-        <v>212.6207754717873</v>
+        <v>212.6207754717874</v>
       </c>
       <c r="M46" t="n">
-        <v>234.6728598343119</v>
+        <v>234.6728598343121</v>
       </c>
       <c r="N46" t="n">
-        <v>234.5823752843097</v>
+        <v>234.5823752843098</v>
       </c>
       <c r="O46" t="n">
-        <v>200.4967155554702</v>
+        <v>200.4967155554703</v>
       </c>
       <c r="P46" t="n">
-        <v>147.8013121579723</v>
+        <v>147.8013121579724</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.05210864985024</v>
+        <v>18.05210864985031</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
